--- a/backend/public/templates/template_file.xlsx
+++ b/backend/public/templates/template_file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gims\backend\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gims-old\backend\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F4E2BB-5551-45DB-B340-B6A8AFBC375B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E55988-1DD0-4513-8AAC-2F22B5DABC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Request Template" sheetId="21" r:id="rId1"/>
@@ -966,7 +966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1175,40 +1175,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1605,11 +1572,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1618,9 +1598,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="40"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1644,26 +1621,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="38"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="45"/>
     </xf>
@@ -1727,56 +1684,56 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1900,7 +1857,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:colOff>1581150</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -2248,7 +2205,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2332,52 +2289,52 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="226" t="s">
+      <c r="H7" s="215" t="s">
         <v>156</v>
       </c>
-      <c r="I7" s="226"/>
+      <c r="I7" s="215"/>
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="227" t="s">
+      <c r="A8" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="229" t="s">
+      <c r="B8" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="227" t="s">
+      <c r="C8" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="227" t="s">
+      <c r="D8" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="227" t="s">
+      <c r="E8" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="231" t="s">
+      <c r="F8" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="231"/>
-      <c r="H8" s="229" t="s">
+      <c r="G8" s="220"/>
+      <c r="H8" s="218" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="229" t="s">
+      <c r="I8" s="218" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="228"/>
-      <c r="B9" s="230"/>
-      <c r="C9" s="228"/>
-      <c r="D9" s="228"/>
-      <c r="E9" s="228"/>
+      <c r="A9" s="217"/>
+      <c r="B9" s="219"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="230"/>
-      <c r="I9" s="230"/>
+      <c r="H9" s="219"/>
+      <c r="I9" s="219"/>
     </row>
     <row r="10" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -2419,41 +2376,41 @@
       <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="225" t="s">
+      <c r="A13" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="225"/>
-      <c r="C13" s="225"/>
-      <c r="D13" s="225"/>
-      <c r="E13" s="225"/>
-      <c r="F13" s="225"/>
-      <c r="G13" s="225"/>
-      <c r="H13" s="225"/>
+      <c r="B13" s="214"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
       <c r="I13" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="217"/>
-      <c r="B14" s="218"/>
-      <c r="C14" s="218"/>
-      <c r="D14" s="218"/>
-      <c r="E14" s="218"/>
-      <c r="F14" s="218"/>
-      <c r="G14" s="218"/>
-      <c r="H14" s="219"/>
-      <c r="I14" s="223"/>
+      <c r="A14" s="206"/>
+      <c r="B14" s="207"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="208"/>
+      <c r="I14" s="212"/>
     </row>
     <row r="15" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="220"/>
-      <c r="B15" s="221"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="221"/>
-      <c r="E15" s="221"/>
-      <c r="F15" s="221"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="222"/>
-      <c r="I15" s="224"/>
+      <c r="A15" s="209"/>
+      <c r="B15" s="210"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="210"/>
+      <c r="G15" s="210"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="213"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
@@ -2547,10 +2504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82553E5E-DF17-47D3-A9C3-FA8D94FB7CC0}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2567,61 +2524,59 @@
     <col min="10" max="10" width="13" style="15" customWidth="1"/>
     <col min="11" max="11" width="12" style="15" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="15"/>
-    <col min="14" max="14" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="15"/>
+    <col min="13" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="236" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
       <c r="K2" s="38"/>
       <c r="L2" s="72"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
       <c r="K3" s="73"/>
-      <c r="L3" s="127" t="s">
+      <c r="L3" s="116" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="123"/>
+      <c r="A4" s="112"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
@@ -2630,10 +2585,10 @@
         <v>59</v>
       </c>
       <c r="B5" s="71"/>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="130"/>
+      <c r="G5" s="119"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
@@ -2815,7 +2770,7 @@
       <c r="K16" s="59"/>
       <c r="L16" s="58"/>
     </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="64"/>
       <c r="C17" s="63"/>
@@ -2829,7 +2784,7 @@
       <c r="K17" s="59"/>
       <c r="L17" s="58"/>
     </row>
-    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="64"/>
       <c r="C18" s="63"/>
@@ -2843,7 +2798,7 @@
       <c r="K18" s="59"/>
       <c r="L18" s="58"/>
     </row>
-    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="64"/>
       <c r="C19" s="63"/>
@@ -2857,7 +2812,7 @@
       <c r="K19" s="59"/>
       <c r="L19" s="58"/>
     </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="64"/>
       <c r="C20" s="63"/>
@@ -2871,7 +2826,7 @@
       <c r="K20" s="59"/>
       <c r="L20" s="58"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="64"/>
       <c r="C21" s="63"/>
@@ -2885,7 +2840,7 @@
       <c r="K21" s="59"/>
       <c r="L21" s="58"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="57"/>
       <c r="C22" s="57"/>
@@ -2914,7 +2869,7 @@
       </c>
       <c r="L22" s="53"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
@@ -2927,30 +2882,30 @@
       <c r="J23" s="35"/>
       <c r="K23" s="34"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="240" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="234"/>
+      <c r="B24" s="223"/>
       <c r="C24" s="44"/>
       <c r="D24" s="21"/>
-      <c r="J24" s="232" t="s">
+      <c r="J24" s="224" t="s">
         <v>37</v>
       </c>
-      <c r="K24" s="233"/>
-      <c r="L24" s="234"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="232" t="s">
+      <c r="K24" s="222"/>
+      <c r="L24" s="223"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="224" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="234"/>
+      <c r="B25" s="223"/>
       <c r="C25" s="52"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="232" t="s">
+      <c r="E25" s="224" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="234"/>
+      <c r="F25" s="223"/>
       <c r="G25" s="44"/>
       <c r="H25" s="51" t="s">
         <v>67</v>
@@ -2958,40 +2913,35 @@
       <c r="J25" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="K25" s="232" t="s">
+      <c r="K25" s="224" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="234"/>
-      <c r="M25" s="249"/>
-      <c r="N25" s="250"/>
-      <c r="O25" s="249"/>
-      <c r="P25" s="250"/>
-      <c r="Q25" s="250"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="235" t="s">
+      <c r="L25" s="223"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="229" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="234"/>
+      <c r="B26" s="223"/>
       <c r="C26" s="49"/>
       <c r="D26" s="48"/>
-      <c r="E26" s="240" t="s">
+      <c r="E26" s="233" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="234"/>
+      <c r="F26" s="223"/>
       <c r="G26" s="47">
         <v>1</v>
       </c>
       <c r="H26" s="46"/>
       <c r="J26" s="45"/>
-      <c r="K26" s="241"/>
-      <c r="L26" s="242"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="232" t="s">
+      <c r="K26" s="234"/>
+      <c r="L26" s="235"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="234"/>
+      <c r="B27" s="223"/>
       <c r="C27" s="43"/>
       <c r="D27" s="39"/>
       <c r="E27" s="1"/>
@@ -2999,10 +2949,10 @@
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
       <c r="J27" s="42"/>
-      <c r="K27" s="251"/>
-      <c r="L27" s="252"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K27" s="225"/>
+      <c r="L27" s="226"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
       <c r="B28" s="40"/>
       <c r="C28" s="34"/>
@@ -3015,100 +2965,85 @@
       <c r="J28" s="35"/>
       <c r="K28" s="34"/>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D29" s="32"/>
       <c r="H29" s="33"/>
       <c r="I29" s="32"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="239" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="232" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="233"/>
-      <c r="C30" s="234"/>
-      <c r="D30" s="238" t="s">
+      <c r="B30" s="222"/>
+      <c r="C30" s="223"/>
+      <c r="D30" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="233"/>
-      <c r="F30" s="233"/>
-      <c r="G30" s="234"/>
-      <c r="H30" s="238" t="s">
+      <c r="E30" s="222"/>
+      <c r="F30" s="222"/>
+      <c r="G30" s="223"/>
+      <c r="H30" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="238"/>
-      <c r="J30" s="238"/>
+      <c r="I30" s="228"/>
+      <c r="J30" s="228"/>
       <c r="K30" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="L30" s="128"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="247"/>
-      <c r="B31" s="233"/>
-      <c r="C31" s="234"/>
-      <c r="D31" s="247"/>
-      <c r="E31" s="233"/>
-      <c r="F31" s="233"/>
-      <c r="G31" s="234"/>
-      <c r="H31" s="247"/>
-      <c r="I31" s="247"/>
-      <c r="J31" s="247"/>
-      <c r="K31" s="129"/>
-      <c r="L31" s="124"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="247"/>
-      <c r="B32" s="233"/>
-      <c r="C32" s="234"/>
-      <c r="D32" s="247"/>
-      <c r="E32" s="233"/>
-      <c r="F32" s="233"/>
-      <c r="G32" s="234"/>
-      <c r="H32" s="247"/>
-      <c r="I32" s="247"/>
-      <c r="J32" s="247"/>
-      <c r="K32" s="129"/>
-      <c r="L32" s="124"/>
+      <c r="L30" s="117"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="221"/>
+      <c r="B31" s="222"/>
+      <c r="C31" s="223"/>
+      <c r="D31" s="221"/>
+      <c r="E31" s="222"/>
+      <c r="F31" s="222"/>
+      <c r="G31" s="223"/>
+      <c r="H31" s="221"/>
+      <c r="I31" s="221"/>
+      <c r="J31" s="221"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="113"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="221"/>
+      <c r="B32" s="222"/>
+      <c r="C32" s="223"/>
+      <c r="D32" s="221"/>
+      <c r="E32" s="222"/>
+      <c r="F32" s="222"/>
+      <c r="G32" s="223"/>
+      <c r="H32" s="221"/>
+      <c r="I32" s="221"/>
+      <c r="J32" s="221"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="113"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="247" t="s">
+      <c r="A33" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="233"/>
-      <c r="C33" s="234"/>
-      <c r="D33" s="247" t="s">
+      <c r="B33" s="222"/>
+      <c r="C33" s="223"/>
+      <c r="D33" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="233"/>
-      <c r="F33" s="233"/>
-      <c r="G33" s="234"/>
-      <c r="H33" s="247" t="s">
+      <c r="E33" s="222"/>
+      <c r="F33" s="222"/>
+      <c r="G33" s="223"/>
+      <c r="H33" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="I33" s="247"/>
-      <c r="J33" s="248"/>
-      <c r="K33" s="129" t="s">
+      <c r="I33" s="221"/>
+      <c r="J33" s="227"/>
+      <c r="K33" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="124"/>
+      <c r="L33" s="113"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
+  <mergeCells count="25">
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A25:B25"/>
@@ -3121,6 +3056,19 @@
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="H32:J32"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.17" top="0.64" bottom="0.17" header="0.38" footer="0.17"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3130,24 +3078,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DF7BDD-FABE-445C-AFFC-B8548AA953D7}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="74" customWidth="1"/>
+    <col min="1" max="1" width="4" style="74" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" style="74" customWidth="1"/>
     <col min="3" max="3" width="27" style="76" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="74" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="75" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="75" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" style="74" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="74" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="74" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="75" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="74" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="74"/>
     <col min="12" max="12" width="10.85546875" style="74" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" style="74" bestFit="1" customWidth="1"/>
@@ -3155,53 +3103,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="255" t="s">
+      <c r="A1" s="240" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
-      <c r="J1" s="256"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="260" t="s">
+      <c r="A2" s="245" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="261"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="263" t="s">
+      <c r="A3" s="248" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="264"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="127" t="s">
+      <c r="B3" s="249"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="116" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="122"/>
+      <c r="C4" s="111"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -3210,30 +3158,30 @@
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:13" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="78" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="71"/>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="121"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="110"/>
       <c r="L5" s="77"/>
     </row>
-    <row r="6" spans="1:13" s="99" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="98" t="s">
+    <row r="6" spans="1:13" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="108" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="65" t="s">
@@ -3254,429 +3202,369 @@
       <c r="I6" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="87" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="107" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="116"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="118"/>
-    </row>
-    <row r="8" spans="1:13" s="107" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="116"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="109"/>
-    </row>
-    <row r="9" spans="1:13" s="107" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="116"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="109"/>
-    </row>
-    <row r="10" spans="1:13" s="107" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="116"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="109"/>
-    </row>
-    <row r="11" spans="1:13" s="107" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="116"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="109"/>
-    </row>
-    <row r="12" spans="1:13" s="107" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="116"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="109"/>
-    </row>
-    <row r="13" spans="1:13" s="107" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="116"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="109"/>
-    </row>
-    <row r="14" spans="1:13" s="107" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="116"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="109"/>
-      <c r="M14" s="117"/>
-    </row>
-    <row r="15" spans="1:13" s="107" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="116"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="109"/>
-    </row>
-    <row r="16" spans="1:13" s="107" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="116"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="109"/>
-    </row>
-    <row r="17" spans="1:13" s="107" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="116"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="109"/>
-    </row>
-    <row r="18" spans="1:13" s="107" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="116"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="109"/>
-      <c r="M18" s="108"/>
-    </row>
-    <row r="19" spans="1:13" s="107" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="116"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="109"/>
-      <c r="M19" s="108"/>
-    </row>
-    <row r="20" spans="1:13" s="107" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="116"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="109"/>
-      <c r="M20" s="108"/>
-    </row>
-    <row r="21" spans="1:13" s="107" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="116"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="109"/>
-      <c r="M21" s="108"/>
-    </row>
-    <row r="22" spans="1:13" s="99" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="265" t="s">
+    <row r="7" spans="1:13" s="96" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="105"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="107"/>
+    </row>
+    <row r="8" spans="1:13" s="96" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="105"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="98"/>
+    </row>
+    <row r="9" spans="1:13" s="96" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="105"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="98"/>
+    </row>
+    <row r="10" spans="1:13" s="96" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="105"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="98"/>
+    </row>
+    <row r="11" spans="1:13" s="96" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="105"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="98"/>
+    </row>
+    <row r="12" spans="1:13" s="96" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="105"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="98"/>
+    </row>
+    <row r="13" spans="1:13" s="96" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="105"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="98"/>
+    </row>
+    <row r="14" spans="1:13" s="96" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="105"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="98"/>
+      <c r="M14" s="106"/>
+    </row>
+    <row r="15" spans="1:13" s="96" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="105"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="98"/>
+    </row>
+    <row r="16" spans="1:13" s="96" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="105"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="98"/>
+    </row>
+    <row r="17" spans="1:13" s="96" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="105"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="98"/>
+    </row>
+    <row r="18" spans="1:13" s="96" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="105"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="98"/>
+      <c r="M18" s="97"/>
+    </row>
+    <row r="19" spans="1:13" s="96" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="105"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="98"/>
+      <c r="M19" s="97"/>
+    </row>
+    <row r="20" spans="1:13" s="96" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="105"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="98"/>
+      <c r="M20" s="97"/>
+    </row>
+    <row r="21" spans="1:13" s="96" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="105"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="98"/>
+      <c r="M21" s="97"/>
+    </row>
+    <row r="22" spans="1:13" s="88" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="250" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="233"/>
-      <c r="C22" s="233"/>
-      <c r="D22" s="234"/>
-      <c r="E22" s="106"/>
+      <c r="B22" s="222"/>
+      <c r="C22" s="222"/>
+      <c r="D22" s="223"/>
+      <c r="E22" s="95"/>
       <c r="F22" s="43"/>
-      <c r="G22" s="105">
+      <c r="G22" s="94">
         <f>SUM(G7:G21)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="105">
+      <c r="H22" s="94">
         <f t="shared" ref="H22:I22" si="0">SUM(H7:H21)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="105">
+      <c r="I22" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="104"/>
-      <c r="K22" s="100"/>
-    </row>
-    <row r="23" spans="1:13" s="99" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J22" s="93"/>
+      <c r="K22" s="89"/>
+    </row>
+    <row r="23" spans="1:13" s="88" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="101"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
       <c r="I23" s="38"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="100"/>
-    </row>
-    <row r="24" spans="1:13" s="99" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="232" t="s">
+      <c r="J23" s="90"/>
+      <c r="K23" s="89"/>
+    </row>
+    <row r="24" spans="1:13" s="88" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="224" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="234"/>
-      <c r="C24" s="259"/>
-      <c r="D24" s="233"/>
-      <c r="E24" s="234"/>
+      <c r="B24" s="223"/>
+      <c r="C24" s="244"/>
+      <c r="D24" s="222"/>
+      <c r="E24" s="223"/>
       <c r="F24" s="38"/>
       <c r="G24" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="H24" s="258"/>
-      <c r="I24" s="233"/>
-      <c r="J24" s="234"/>
-      <c r="K24" s="100"/>
-    </row>
-    <row r="25" spans="1:13" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="232" t="s">
+      <c r="H24" s="243"/>
+      <c r="I24" s="222"/>
+      <c r="J24" s="223"/>
+      <c r="K24" s="89"/>
+    </row>
+    <row r="25" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="224" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="234"/>
-      <c r="C25" s="259"/>
-      <c r="D25" s="233"/>
-      <c r="E25" s="234"/>
+      <c r="B25" s="223"/>
+      <c r="C25" s="244"/>
+      <c r="D25" s="222"/>
+      <c r="E25" s="223"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:13" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="95"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="97"/>
+    <row r="26" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="84"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="75"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="95"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
-      <c r="K26" s="92"/>
-    </row>
-    <row r="27" spans="1:13" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="247" t="s">
+      <c r="K26" s="81"/>
+    </row>
+    <row r="27" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="234"/>
-      <c r="C27" s="238" t="s">
+      <c r="B27" s="223"/>
+      <c r="C27" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="234"/>
+      <c r="D27" s="223"/>
       <c r="E27" s="51" t="s">
         <v>27</v>
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="247" t="s">
+      <c r="H27" s="83"/>
+      <c r="I27" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="234"/>
-      <c r="K27" s="92"/>
-      <c r="M27" s="93"/>
-    </row>
-    <row r="28" spans="1:13" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="247"/>
-      <c r="B28" s="234"/>
-      <c r="C28" s="247"/>
-      <c r="D28" s="234"/>
-      <c r="E28" s="247"/>
-      <c r="F28" s="233"/>
-      <c r="G28" s="233"/>
-      <c r="H28" s="234"/>
-      <c r="I28" s="247"/>
-      <c r="J28" s="234"/>
-      <c r="K28" s="92"/>
+      <c r="J27" s="223"/>
+      <c r="K27" s="81"/>
+      <c r="M27" s="82"/>
+    </row>
+    <row r="28" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="221"/>
+      <c r="B28" s="223"/>
+      <c r="C28" s="221"/>
+      <c r="D28" s="223"/>
+      <c r="E28" s="221"/>
+      <c r="F28" s="222"/>
+      <c r="G28" s="222"/>
+      <c r="H28" s="223"/>
+      <c r="I28" s="221"/>
+      <c r="J28" s="223"/>
+      <c r="K28" s="81"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="247"/>
-      <c r="B29" s="234"/>
-      <c r="C29" s="247"/>
-      <c r="D29" s="234"/>
-      <c r="E29" s="247"/>
-      <c r="F29" s="233"/>
-      <c r="G29" s="233"/>
-      <c r="H29" s="234"/>
-      <c r="I29" s="247"/>
-      <c r="J29" s="234"/>
-      <c r="L29" s="90"/>
+      <c r="A29" s="221"/>
+      <c r="B29" s="223"/>
+      <c r="C29" s="221"/>
+      <c r="D29" s="223"/>
+      <c r="E29" s="221"/>
+      <c r="F29" s="222"/>
+      <c r="G29" s="222"/>
+      <c r="H29" s="223"/>
+      <c r="I29" s="221"/>
+      <c r="J29" s="223"/>
+      <c r="L29" s="79"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="247" t="s">
+      <c r="A30" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="234"/>
-      <c r="C30" s="247" t="s">
+      <c r="B30" s="223"/>
+      <c r="C30" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="234"/>
-      <c r="E30" s="247" t="s">
+      <c r="D30" s="223"/>
+      <c r="E30" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="233"/>
-      <c r="G30" s="233"/>
-      <c r="H30" s="234"/>
-      <c r="I30" s="247" t="s">
+      <c r="F30" s="222"/>
+      <c r="G30" s="222"/>
+      <c r="H30" s="223"/>
+      <c r="I30" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="234"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="21"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="81"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="253"/>
-      <c r="H35" s="254"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="81"/>
-    </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="78"/>
-      <c r="K36" s="77"/>
+      <c r="J30" s="223"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="24">
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="C27:D27"/>
@@ -3689,21 +3577,8 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I28:J28"/>
   </mergeCells>
-  <pageMargins left="0.18" right="0.17" top="0.72" bottom="0.17" header="0.3" footer="0.17"/>
+  <pageMargins left="0.17" right="0.17" top="0.72" bottom="0.17" header="0.3" footer="0.17"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3713,866 +3588,866 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3A5034-8F01-4DFC-81E3-0C9AB08D0133}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="182" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="182" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="182" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="182" customWidth="1"/>
-    <col min="5" max="5" width="11" style="182" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="182" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="182" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="182" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="182" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="182" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="182" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="182"/>
+    <col min="1" max="1" width="8.7109375" style="171" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="171" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="171" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="171" customWidth="1"/>
+    <col min="5" max="5" width="11" style="171" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="171" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="171" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="171" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="171" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="171" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="171" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="171"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="178"/>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="181" t="s">
+      <c r="A1" s="167"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="170" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="183"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="185" t="s">
+      <c r="A2" s="172"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="174" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="186"/>
-      <c r="F3" s="211" t="s">
+      <c r="A3" s="175"/>
+      <c r="F3" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="193"/>
-      <c r="I3" s="184"/>
-      <c r="J3" s="184"/>
-      <c r="K3" s="187"/>
+      <c r="G3" s="182"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="176"/>
     </row>
     <row r="4" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="213" t="s">
+      <c r="I4" s="202" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="214"/>
-      <c r="K4" s="191"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="180"/>
     </row>
     <row r="5" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="178" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="190"/>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="191"/>
-      <c r="I5" s="176" t="s">
+      <c r="B5" s="179"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="190"/>
-      <c r="K5" s="191"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="180"/>
     </row>
     <row r="6" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A6" s="189" t="s">
+      <c r="A6" s="178" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="190"/>
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="212"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="176" t="s">
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="190"/>
-      <c r="K6" s="191"/>
+      <c r="J6" s="179"/>
+      <c r="K6" s="180"/>
     </row>
     <row r="7" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A7" s="189" t="s">
+      <c r="A7" s="178" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="190"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="192"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="181"/>
     </row>
     <row r="8" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="178" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="192"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="181"/>
     </row>
     <row r="9" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="190"/>
-      <c r="C9" s="190"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="190"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="192"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="181"/>
     </row>
     <row r="10" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A10" s="189" t="s">
+      <c r="A10" s="178" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="190"/>
-      <c r="C10" s="190"/>
-      <c r="D10" s="190"/>
-      <c r="E10" s="190"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="190"/>
-      <c r="H10" s="190"/>
-      <c r="I10" s="177"/>
-      <c r="J10" s="177"/>
-      <c r="K10" s="192"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="181"/>
     </row>
     <row r="11" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A11" s="266" t="s">
+      <c r="A11" s="251" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="267"/>
-      <c r="C11" s="194" t="s">
+      <c r="B11" s="252"/>
+      <c r="C11" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="195"/>
-      <c r="E11" s="194" t="s">
+      <c r="D11" s="184"/>
+      <c r="E11" s="183" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="195"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="194" t="s">
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="195"/>
-      <c r="J11" s="194" t="s">
+      <c r="I11" s="184"/>
+      <c r="J11" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="132"/>
+      <c r="K11" s="121"/>
     </row>
     <row r="12" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A12" s="196"/>
-      <c r="B12" s="197"/>
-      <c r="C12" s="198" t="s">
+      <c r="A12" s="185"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="197"/>
-      <c r="E12" s="198" t="s">
+      <c r="D12" s="186"/>
+      <c r="E12" s="187" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="198"/>
-      <c r="G12" s="197"/>
-      <c r="H12" s="199" t="s">
+      <c r="F12" s="187"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="197"/>
-      <c r="J12" s="196" t="s">
+      <c r="I12" s="186"/>
+      <c r="J12" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="200"/>
+      <c r="K12" s="189"/>
     </row>
     <row r="13" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A13" s="201" t="s">
+      <c r="A13" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="202"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="203"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="201"/>
-      <c r="K13" s="204"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="191"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="191"/>
+      <c r="H13" s="192"/>
+      <c r="I13" s="191"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="193"/>
     </row>
     <row r="14" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A14" s="201" t="s">
+      <c r="A14" s="190" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="202"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="201"/>
-      <c r="K14" s="202"/>
+      <c r="B14" s="191"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="191"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="191"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="191"/>
     </row>
     <row r="15" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A15" s="201" t="s">
+      <c r="A15" s="190" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="202"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="202"/>
+      <c r="B15" s="191"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="191"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="191"/>
     </row>
     <row r="16" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A16" s="205" t="s">
+      <c r="A16" s="194" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="206"/>
-      <c r="C16" s="207"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="206"/>
-      <c r="H16" s="207"/>
-      <c r="I16" s="206"/>
-      <c r="J16" s="205"/>
-      <c r="K16" s="206"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="195"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="268" t="s">
+      <c r="A17" s="253" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="269"/>
-      <c r="C17" s="269"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="269"/>
-      <c r="F17" s="269"/>
-      <c r="G17" s="269"/>
-      <c r="H17" s="269"/>
-      <c r="I17" s="269"/>
-      <c r="J17" s="269"/>
-      <c r="K17" s="270"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="254"/>
+      <c r="E17" s="254"/>
+      <c r="F17" s="254"/>
+      <c r="G17" s="254"/>
+      <c r="H17" s="254"/>
+      <c r="I17" s="254"/>
+      <c r="J17" s="254"/>
+      <c r="K17" s="255"/>
     </row>
     <row r="18" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A18" s="271" t="s">
+      <c r="A18" s="256" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="272"/>
-      <c r="C18" s="272"/>
-      <c r="D18" s="273"/>
-      <c r="E18" s="274" t="s">
+      <c r="B18" s="257"/>
+      <c r="C18" s="257"/>
+      <c r="D18" s="258"/>
+      <c r="E18" s="259" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="274"/>
-      <c r="G18" s="274"/>
-      <c r="H18" s="275" t="s">
+      <c r="F18" s="259"/>
+      <c r="G18" s="259"/>
+      <c r="H18" s="260" t="s">
         <v>94</v>
       </c>
-      <c r="I18" s="275" t="s">
+      <c r="I18" s="260" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="275" t="s">
+      <c r="J18" s="260" t="s">
         <v>96</v>
       </c>
-      <c r="K18" s="274" t="s">
+      <c r="K18" s="259" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A19" s="133" t="s">
+      <c r="A19" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="133" t="s">
+      <c r="D19" s="122" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="133" t="s">
+      <c r="E19" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="133" t="s">
+      <c r="F19" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="134" t="s">
+      <c r="G19" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="275"/>
-      <c r="I19" s="275"/>
-      <c r="J19" s="275"/>
-      <c r="K19" s="274"/>
+      <c r="H19" s="260"/>
+      <c r="I19" s="260"/>
+      <c r="J19" s="260"/>
+      <c r="K19" s="259"/>
     </row>
     <row r="20" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A20" s="133"/>
-      <c r="B20" s="208"/>
-      <c r="C20" s="208"/>
-      <c r="D20" s="208"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="188"/>
-      <c r="I20" s="208"/>
-      <c r="J20" s="209"/>
-      <c r="K20" s="208"/>
+      <c r="A20" s="122"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="197"/>
+      <c r="D20" s="197"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="197"/>
+      <c r="J20" s="198"/>
+      <c r="K20" s="197"/>
     </row>
     <row r="21" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A21" s="133"/>
-      <c r="B21" s="208"/>
-      <c r="C21" s="208"/>
-      <c r="D21" s="208"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="208"/>
-      <c r="J21" s="209"/>
-      <c r="K21" s="210"/>
+      <c r="A21" s="122"/>
+      <c r="B21" s="197"/>
+      <c r="C21" s="197"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="198"/>
+      <c r="K21" s="199"/>
     </row>
     <row r="22" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A22" s="133"/>
-      <c r="B22" s="208"/>
-      <c r="C22" s="208"/>
-      <c r="D22" s="208"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="208"/>
-      <c r="J22" s="209"/>
-      <c r="K22" s="208"/>
+      <c r="A22" s="122"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="198"/>
+      <c r="K22" s="197"/>
     </row>
     <row r="23" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A23" s="133"/>
-      <c r="B23" s="208"/>
-      <c r="C23" s="208"/>
-      <c r="D23" s="208"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="208"/>
-      <c r="J23" s="209"/>
-      <c r="K23" s="208"/>
+      <c r="A23" s="122"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="197"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="197"/>
+      <c r="J23" s="198"/>
+      <c r="K23" s="197"/>
     </row>
     <row r="24" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A24" s="133"/>
-      <c r="B24" s="208"/>
-      <c r="C24" s="208"/>
-      <c r="D24" s="208"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="208"/>
-      <c r="J24" s="209"/>
-      <c r="K24" s="208"/>
+      <c r="A24" s="122"/>
+      <c r="B24" s="197"/>
+      <c r="C24" s="197"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="198"/>
+      <c r="K24" s="197"/>
     </row>
     <row r="25" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A25" s="133"/>
-      <c r="B25" s="208"/>
-      <c r="C25" s="208"/>
-      <c r="D25" s="208"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="208"/>
-      <c r="J25" s="209"/>
-      <c r="K25" s="208"/>
+      <c r="A25" s="122"/>
+      <c r="B25" s="197"/>
+      <c r="C25" s="197"/>
+      <c r="D25" s="197"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="197"/>
+      <c r="J25" s="198"/>
+      <c r="K25" s="197"/>
     </row>
     <row r="26" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A26" s="133"/>
-      <c r="B26" s="208"/>
-      <c r="C26" s="208"/>
-      <c r="D26" s="208"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="208"/>
-      <c r="J26" s="209"/>
-      <c r="K26" s="208"/>
+      <c r="A26" s="122"/>
+      <c r="B26" s="197"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="197"/>
+      <c r="J26" s="198"/>
+      <c r="K26" s="197"/>
     </row>
     <row r="27" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A27" s="133"/>
-      <c r="B27" s="208"/>
-      <c r="C27" s="208"/>
-      <c r="D27" s="208"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="188"/>
-      <c r="G27" s="188"/>
-      <c r="H27" s="188"/>
-      <c r="I27" s="208"/>
-      <c r="J27" s="209"/>
-      <c r="K27" s="208"/>
+      <c r="A27" s="122"/>
+      <c r="B27" s="197"/>
+      <c r="C27" s="197"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="198"/>
+      <c r="K27" s="197"/>
     </row>
     <row r="28" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A28" s="133"/>
-      <c r="B28" s="208"/>
-      <c r="C28" s="208"/>
-      <c r="D28" s="208"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="188"/>
-      <c r="G28" s="188"/>
-      <c r="H28" s="188"/>
-      <c r="I28" s="208"/>
-      <c r="J28" s="209"/>
-      <c r="K28" s="208"/>
+      <c r="A28" s="122"/>
+      <c r="B28" s="197"/>
+      <c r="C28" s="197"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="197"/>
+      <c r="J28" s="198"/>
+      <c r="K28" s="197"/>
     </row>
     <row r="29" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A29" s="133"/>
-      <c r="B29" s="208"/>
-      <c r="C29" s="208"/>
-      <c r="D29" s="208"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="188"/>
-      <c r="G29" s="188"/>
-      <c r="H29" s="188"/>
-      <c r="I29" s="208"/>
-      <c r="J29" s="209"/>
-      <c r="K29" s="208"/>
+      <c r="A29" s="122"/>
+      <c r="B29" s="197"/>
+      <c r="C29" s="197"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="197"/>
+      <c r="J29" s="198"/>
+      <c r="K29" s="197"/>
     </row>
     <row r="30" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A30" s="133"/>
-      <c r="B30" s="208"/>
-      <c r="C30" s="208"/>
-      <c r="D30" s="208"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="188"/>
-      <c r="G30" s="188"/>
-      <c r="H30" s="188"/>
-      <c r="I30" s="208"/>
-      <c r="J30" s="209"/>
-      <c r="K30" s="208"/>
+      <c r="A30" s="122"/>
+      <c r="B30" s="197"/>
+      <c r="C30" s="197"/>
+      <c r="D30" s="197"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="197"/>
+      <c r="J30" s="198"/>
+      <c r="K30" s="197"/>
     </row>
     <row r="31" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A31" s="133"/>
-      <c r="B31" s="208"/>
-      <c r="C31" s="208"/>
-      <c r="D31" s="208"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="208"/>
-      <c r="J31" s="209"/>
-      <c r="K31" s="208"/>
+      <c r="A31" s="122"/>
+      <c r="B31" s="197"/>
+      <c r="C31" s="197"/>
+      <c r="D31" s="197"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="197"/>
+      <c r="J31" s="198"/>
+      <c r="K31" s="197"/>
     </row>
     <row r="32" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A32" s="133"/>
-      <c r="B32" s="208"/>
-      <c r="C32" s="208"/>
-      <c r="D32" s="208"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="208"/>
-      <c r="J32" s="209"/>
-      <c r="K32" s="208"/>
+      <c r="A32" s="122"/>
+      <c r="B32" s="197"/>
+      <c r="C32" s="197"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="197"/>
+      <c r="J32" s="198"/>
+      <c r="K32" s="197"/>
     </row>
     <row r="33" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A33" s="133"/>
-      <c r="B33" s="208"/>
-      <c r="C33" s="208"/>
-      <c r="D33" s="208"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="208"/>
-      <c r="J33" s="209"/>
-      <c r="K33" s="208"/>
+      <c r="A33" s="122"/>
+      <c r="B33" s="197"/>
+      <c r="C33" s="197"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="197"/>
+      <c r="J33" s="198"/>
+      <c r="K33" s="197"/>
     </row>
     <row r="34" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A34" s="133"/>
-      <c r="B34" s="208"/>
-      <c r="C34" s="208"/>
-      <c r="D34" s="208"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="208"/>
-      <c r="J34" s="209"/>
-      <c r="K34" s="208"/>
+      <c r="A34" s="122"/>
+      <c r="B34" s="197"/>
+      <c r="C34" s="197"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="177"/>
+      <c r="H34" s="177"/>
+      <c r="I34" s="197"/>
+      <c r="J34" s="198"/>
+      <c r="K34" s="197"/>
     </row>
     <row r="35" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A35" s="133"/>
-      <c r="B35" s="208"/>
-      <c r="C35" s="208"/>
-      <c r="D35" s="208"/>
-      <c r="E35" s="188"/>
-      <c r="F35" s="188"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="188"/>
-      <c r="I35" s="208"/>
-      <c r="J35" s="209"/>
-      <c r="K35" s="208"/>
+      <c r="A35" s="122"/>
+      <c r="B35" s="197"/>
+      <c r="C35" s="197"/>
+      <c r="D35" s="197"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="177"/>
+      <c r="G35" s="177"/>
+      <c r="H35" s="177"/>
+      <c r="I35" s="197"/>
+      <c r="J35" s="198"/>
+      <c r="K35" s="197"/>
     </row>
     <row r="36" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A36" s="133"/>
-      <c r="B36" s="208"/>
-      <c r="C36" s="208"/>
-      <c r="D36" s="208"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="208"/>
-      <c r="J36" s="209"/>
-      <c r="K36" s="208"/>
+      <c r="A36" s="122"/>
+      <c r="B36" s="197"/>
+      <c r="C36" s="197"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="177"/>
+      <c r="I36" s="197"/>
+      <c r="J36" s="198"/>
+      <c r="K36" s="197"/>
     </row>
     <row r="37" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A37" s="133"/>
-      <c r="B37" s="208"/>
-      <c r="C37" s="208"/>
-      <c r="D37" s="208"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="208"/>
-      <c r="J37" s="209"/>
-      <c r="K37" s="208"/>
+      <c r="A37" s="122"/>
+      <c r="B37" s="197"/>
+      <c r="C37" s="197"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="177"/>
+      <c r="G37" s="177"/>
+      <c r="H37" s="177"/>
+      <c r="I37" s="197"/>
+      <c r="J37" s="198"/>
+      <c r="K37" s="197"/>
     </row>
     <row r="38" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A38" s="133"/>
-      <c r="B38" s="208"/>
-      <c r="C38" s="208"/>
-      <c r="D38" s="208"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="188"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="188"/>
-      <c r="I38" s="208"/>
-      <c r="J38" s="209"/>
-      <c r="K38" s="208"/>
+      <c r="A38" s="122"/>
+      <c r="B38" s="197"/>
+      <c r="C38" s="197"/>
+      <c r="D38" s="197"/>
+      <c r="E38" s="177"/>
+      <c r="F38" s="177"/>
+      <c r="G38" s="177"/>
+      <c r="H38" s="177"/>
+      <c r="I38" s="197"/>
+      <c r="J38" s="198"/>
+      <c r="K38" s="197"/>
     </row>
     <row r="39" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A39" s="133"/>
-      <c r="B39" s="208"/>
-      <c r="C39" s="208"/>
-      <c r="D39" s="208"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="188"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="188"/>
-      <c r="I39" s="208"/>
-      <c r="J39" s="209"/>
-      <c r="K39" s="208"/>
+      <c r="A39" s="122"/>
+      <c r="B39" s="197"/>
+      <c r="C39" s="197"/>
+      <c r="D39" s="197"/>
+      <c r="E39" s="177"/>
+      <c r="F39" s="177"/>
+      <c r="G39" s="177"/>
+      <c r="H39" s="177"/>
+      <c r="I39" s="197"/>
+      <c r="J39" s="198"/>
+      <c r="K39" s="197"/>
     </row>
     <row r="40" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A40" s="133"/>
-      <c r="B40" s="208"/>
-      <c r="C40" s="208"/>
-      <c r="D40" s="208"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="188"/>
-      <c r="H40" s="188"/>
-      <c r="I40" s="208"/>
-      <c r="J40" s="209"/>
-      <c r="K40" s="208"/>
+      <c r="A40" s="122"/>
+      <c r="B40" s="197"/>
+      <c r="C40" s="197"/>
+      <c r="D40" s="197"/>
+      <c r="E40" s="177"/>
+      <c r="F40" s="177"/>
+      <c r="G40" s="177"/>
+      <c r="H40" s="177"/>
+      <c r="I40" s="197"/>
+      <c r="J40" s="198"/>
+      <c r="K40" s="197"/>
     </row>
     <row r="41" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A41" s="133"/>
-      <c r="B41" s="208"/>
-      <c r="C41" s="208"/>
-      <c r="D41" s="208"/>
-      <c r="E41" s="188"/>
-      <c r="F41" s="188"/>
-      <c r="G41" s="188"/>
-      <c r="H41" s="188"/>
-      <c r="I41" s="208"/>
-      <c r="J41" s="209"/>
-      <c r="K41" s="208"/>
+      <c r="A41" s="122"/>
+      <c r="B41" s="197"/>
+      <c r="C41" s="197"/>
+      <c r="D41" s="197"/>
+      <c r="E41" s="177"/>
+      <c r="F41" s="177"/>
+      <c r="G41" s="177"/>
+      <c r="H41" s="177"/>
+      <c r="I41" s="197"/>
+      <c r="J41" s="198"/>
+      <c r="K41" s="197"/>
     </row>
     <row r="42" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A42" s="133"/>
-      <c r="B42" s="208"/>
-      <c r="C42" s="208"/>
-      <c r="D42" s="208"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="188"/>
-      <c r="G42" s="188"/>
-      <c r="H42" s="188"/>
-      <c r="I42" s="208"/>
-      <c r="J42" s="209"/>
-      <c r="K42" s="208"/>
+      <c r="A42" s="122"/>
+      <c r="B42" s="197"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="177"/>
+      <c r="F42" s="177"/>
+      <c r="G42" s="177"/>
+      <c r="H42" s="177"/>
+      <c r="I42" s="197"/>
+      <c r="J42" s="198"/>
+      <c r="K42" s="197"/>
     </row>
     <row r="43" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A43" s="133"/>
-      <c r="B43" s="208"/>
-      <c r="C43" s="208"/>
-      <c r="D43" s="208"/>
-      <c r="E43" s="188"/>
-      <c r="F43" s="188"/>
-      <c r="G43" s="188"/>
-      <c r="H43" s="188"/>
-      <c r="I43" s="208"/>
-      <c r="J43" s="209"/>
-      <c r="K43" s="208"/>
+      <c r="A43" s="122"/>
+      <c r="B43" s="197"/>
+      <c r="C43" s="197"/>
+      <c r="D43" s="197"/>
+      <c r="E43" s="177"/>
+      <c r="F43" s="177"/>
+      <c r="G43" s="177"/>
+      <c r="H43" s="177"/>
+      <c r="I43" s="197"/>
+      <c r="J43" s="198"/>
+      <c r="K43" s="197"/>
     </row>
     <row r="44" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A44" s="133"/>
-      <c r="B44" s="208"/>
-      <c r="C44" s="208"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="188"/>
-      <c r="F44" s="188"/>
-      <c r="G44" s="188"/>
-      <c r="H44" s="188"/>
-      <c r="I44" s="208"/>
-      <c r="J44" s="209"/>
-      <c r="K44" s="208"/>
+      <c r="A44" s="122"/>
+      <c r="B44" s="197"/>
+      <c r="C44" s="197"/>
+      <c r="D44" s="197"/>
+      <c r="E44" s="177"/>
+      <c r="F44" s="177"/>
+      <c r="G44" s="177"/>
+      <c r="H44" s="177"/>
+      <c r="I44" s="197"/>
+      <c r="J44" s="198"/>
+      <c r="K44" s="197"/>
     </row>
     <row r="45" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A45" s="133"/>
-      <c r="B45" s="208"/>
-      <c r="C45" s="208"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="188"/>
-      <c r="F45" s="188"/>
-      <c r="G45" s="188"/>
-      <c r="H45" s="188"/>
-      <c r="I45" s="208"/>
-      <c r="J45" s="209"/>
-      <c r="K45" s="208"/>
+      <c r="A45" s="122"/>
+      <c r="B45" s="197"/>
+      <c r="C45" s="197"/>
+      <c r="D45" s="197"/>
+      <c r="E45" s="177"/>
+      <c r="F45" s="177"/>
+      <c r="G45" s="177"/>
+      <c r="H45" s="177"/>
+      <c r="I45" s="197"/>
+      <c r="J45" s="198"/>
+      <c r="K45" s="197"/>
     </row>
     <row r="46" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A46" s="133"/>
-      <c r="B46" s="208"/>
-      <c r="C46" s="208"/>
-      <c r="D46" s="208"/>
-      <c r="E46" s="188"/>
-      <c r="F46" s="188"/>
-      <c r="G46" s="188"/>
-      <c r="H46" s="188"/>
-      <c r="I46" s="208"/>
-      <c r="J46" s="209"/>
-      <c r="K46" s="208"/>
+      <c r="A46" s="122"/>
+      <c r="B46" s="197"/>
+      <c r="C46" s="197"/>
+      <c r="D46" s="197"/>
+      <c r="E46" s="177"/>
+      <c r="F46" s="177"/>
+      <c r="G46" s="177"/>
+      <c r="H46" s="177"/>
+      <c r="I46" s="197"/>
+      <c r="J46" s="198"/>
+      <c r="K46" s="197"/>
     </row>
     <row r="47" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A47" s="133"/>
-      <c r="B47" s="208"/>
-      <c r="C47" s="208"/>
-      <c r="D47" s="208"/>
-      <c r="E47" s="188"/>
-      <c r="F47" s="188"/>
-      <c r="G47" s="188"/>
-      <c r="H47" s="188"/>
-      <c r="I47" s="208"/>
-      <c r="J47" s="209"/>
-      <c r="K47" s="208"/>
+      <c r="A47" s="122"/>
+      <c r="B47" s="197"/>
+      <c r="C47" s="197"/>
+      <c r="D47" s="197"/>
+      <c r="E47" s="177"/>
+      <c r="F47" s="177"/>
+      <c r="G47" s="177"/>
+      <c r="H47" s="177"/>
+      <c r="I47" s="197"/>
+      <c r="J47" s="198"/>
+      <c r="K47" s="197"/>
     </row>
     <row r="48" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A48" s="133"/>
-      <c r="B48" s="208"/>
-      <c r="C48" s="208"/>
-      <c r="D48" s="208"/>
-      <c r="E48" s="188"/>
-      <c r="F48" s="188"/>
-      <c r="G48" s="188"/>
-      <c r="H48" s="188"/>
-      <c r="I48" s="208"/>
-      <c r="J48" s="209"/>
-      <c r="K48" s="208"/>
+      <c r="A48" s="122"/>
+      <c r="B48" s="197"/>
+      <c r="C48" s="197"/>
+      <c r="D48" s="197"/>
+      <c r="E48" s="177"/>
+      <c r="F48" s="177"/>
+      <c r="G48" s="177"/>
+      <c r="H48" s="177"/>
+      <c r="I48" s="197"/>
+      <c r="J48" s="198"/>
+      <c r="K48" s="197"/>
     </row>
     <row r="49" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A49" s="133"/>
-      <c r="B49" s="208"/>
-      <c r="C49" s="208"/>
-      <c r="D49" s="208"/>
-      <c r="E49" s="188"/>
-      <c r="F49" s="188"/>
-      <c r="G49" s="188"/>
-      <c r="H49" s="188"/>
-      <c r="I49" s="208"/>
-      <c r="J49" s="209"/>
-      <c r="K49" s="208"/>
+      <c r="A49" s="122"/>
+      <c r="B49" s="197"/>
+      <c r="C49" s="197"/>
+      <c r="D49" s="197"/>
+      <c r="E49" s="177"/>
+      <c r="F49" s="177"/>
+      <c r="G49" s="177"/>
+      <c r="H49" s="177"/>
+      <c r="I49" s="197"/>
+      <c r="J49" s="198"/>
+      <c r="K49" s="197"/>
     </row>
     <row r="50" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A50" s="133"/>
-      <c r="B50" s="208"/>
-      <c r="C50" s="208"/>
-      <c r="D50" s="208"/>
-      <c r="E50" s="188"/>
-      <c r="F50" s="188"/>
-      <c r="G50" s="188"/>
-      <c r="H50" s="188"/>
-      <c r="I50" s="208"/>
-      <c r="J50" s="209"/>
-      <c r="K50" s="208"/>
+      <c r="A50" s="122"/>
+      <c r="B50" s="197"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="197"/>
+      <c r="E50" s="177"/>
+      <c r="F50" s="177"/>
+      <c r="G50" s="177"/>
+      <c r="H50" s="177"/>
+      <c r="I50" s="197"/>
+      <c r="J50" s="198"/>
+      <c r="K50" s="197"/>
     </row>
     <row r="51" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A51" s="133"/>
-      <c r="B51" s="208"/>
-      <c r="C51" s="208"/>
-      <c r="D51" s="208"/>
-      <c r="E51" s="188"/>
-      <c r="F51" s="188"/>
-      <c r="G51" s="188"/>
-      <c r="H51" s="188"/>
-      <c r="I51" s="208"/>
-      <c r="J51" s="209"/>
-      <c r="K51" s="208"/>
+      <c r="A51" s="122"/>
+      <c r="B51" s="197"/>
+      <c r="C51" s="197"/>
+      <c r="D51" s="197"/>
+      <c r="E51" s="177"/>
+      <c r="F51" s="177"/>
+      <c r="G51" s="177"/>
+      <c r="H51" s="177"/>
+      <c r="I51" s="197"/>
+      <c r="J51" s="198"/>
+      <c r="K51" s="197"/>
     </row>
     <row r="52" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A52" s="133"/>
-      <c r="B52" s="208"/>
-      <c r="C52" s="208"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="188"/>
-      <c r="F52" s="188"/>
-      <c r="G52" s="188"/>
-      <c r="H52" s="188"/>
-      <c r="I52" s="208"/>
-      <c r="J52" s="209"/>
-      <c r="K52" s="208"/>
+      <c r="A52" s="122"/>
+      <c r="B52" s="197"/>
+      <c r="C52" s="197"/>
+      <c r="D52" s="197"/>
+      <c r="E52" s="177"/>
+      <c r="F52" s="177"/>
+      <c r="G52" s="177"/>
+      <c r="H52" s="177"/>
+      <c r="I52" s="197"/>
+      <c r="J52" s="198"/>
+      <c r="K52" s="197"/>
     </row>
     <row r="53" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A53" s="133"/>
-      <c r="B53" s="208"/>
-      <c r="C53" s="208"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="188"/>
-      <c r="F53" s="188"/>
-      <c r="G53" s="188"/>
-      <c r="H53" s="188"/>
-      <c r="I53" s="208"/>
-      <c r="J53" s="209"/>
-      <c r="K53" s="208"/>
+      <c r="A53" s="122"/>
+      <c r="B53" s="197"/>
+      <c r="C53" s="197"/>
+      <c r="D53" s="197"/>
+      <c r="E53" s="177"/>
+      <c r="F53" s="177"/>
+      <c r="G53" s="177"/>
+      <c r="H53" s="177"/>
+      <c r="I53" s="197"/>
+      <c r="J53" s="198"/>
+      <c r="K53" s="197"/>
     </row>
     <row r="54" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A54" s="133"/>
-      <c r="B54" s="208"/>
-      <c r="C54" s="208"/>
-      <c r="D54" s="208"/>
-      <c r="E54" s="188"/>
-      <c r="F54" s="188"/>
-      <c r="G54" s="188"/>
-      <c r="H54" s="188"/>
-      <c r="I54" s="208"/>
-      <c r="J54" s="209"/>
-      <c r="K54" s="208"/>
+      <c r="A54" s="122"/>
+      <c r="B54" s="197"/>
+      <c r="C54" s="197"/>
+      <c r="D54" s="197"/>
+      <c r="E54" s="177"/>
+      <c r="F54" s="177"/>
+      <c r="G54" s="177"/>
+      <c r="H54" s="177"/>
+      <c r="I54" s="197"/>
+      <c r="J54" s="198"/>
+      <c r="K54" s="197"/>
     </row>
     <row r="55" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A55" s="133"/>
-      <c r="B55" s="208"/>
-      <c r="C55" s="208"/>
-      <c r="D55" s="208"/>
-      <c r="E55" s="188"/>
-      <c r="F55" s="188"/>
-      <c r="G55" s="188"/>
-      <c r="H55" s="188"/>
-      <c r="I55" s="208"/>
-      <c r="J55" s="209"/>
-      <c r="K55" s="208"/>
+      <c r="A55" s="122"/>
+      <c r="B55" s="197"/>
+      <c r="C55" s="197"/>
+      <c r="D55" s="197"/>
+      <c r="E55" s="177"/>
+      <c r="F55" s="177"/>
+      <c r="G55" s="177"/>
+      <c r="H55" s="177"/>
+      <c r="I55" s="197"/>
+      <c r="J55" s="198"/>
+      <c r="K55" s="197"/>
     </row>
     <row r="56" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A56" s="133"/>
-      <c r="B56" s="208"/>
-      <c r="C56" s="208"/>
-      <c r="D56" s="208"/>
-      <c r="E56" s="188"/>
-      <c r="F56" s="188"/>
-      <c r="G56" s="188"/>
-      <c r="H56" s="188"/>
-      <c r="I56" s="208"/>
-      <c r="J56" s="209"/>
-      <c r="K56" s="208"/>
+      <c r="A56" s="122"/>
+      <c r="B56" s="197"/>
+      <c r="C56" s="197"/>
+      <c r="D56" s="197"/>
+      <c r="E56" s="177"/>
+      <c r="F56" s="177"/>
+      <c r="G56" s="177"/>
+      <c r="H56" s="177"/>
+      <c r="I56" s="197"/>
+      <c r="J56" s="198"/>
+      <c r="K56" s="197"/>
     </row>
     <row r="57" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A57" s="133"/>
-      <c r="B57" s="208"/>
-      <c r="C57" s="208"/>
-      <c r="D57" s="208"/>
-      <c r="E57" s="188"/>
-      <c r="F57" s="188"/>
-      <c r="G57" s="188"/>
-      <c r="H57" s="188"/>
-      <c r="I57" s="208"/>
-      <c r="J57" s="209"/>
-      <c r="K57" s="208"/>
+      <c r="A57" s="122"/>
+      <c r="B57" s="197"/>
+      <c r="C57" s="197"/>
+      <c r="D57" s="197"/>
+      <c r="E57" s="177"/>
+      <c r="F57" s="177"/>
+      <c r="G57" s="177"/>
+      <c r="H57" s="177"/>
+      <c r="I57" s="197"/>
+      <c r="J57" s="198"/>
+      <c r="K57" s="197"/>
     </row>
     <row r="58" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A58" s="133"/>
-      <c r="B58" s="208"/>
-      <c r="C58" s="208"/>
-      <c r="D58" s="208"/>
-      <c r="E58" s="188"/>
-      <c r="F58" s="188"/>
-      <c r="G58" s="188"/>
-      <c r="H58" s="188"/>
-      <c r="I58" s="208"/>
-      <c r="J58" s="209"/>
-      <c r="K58" s="208"/>
+      <c r="A58" s="122"/>
+      <c r="B58" s="197"/>
+      <c r="C58" s="197"/>
+      <c r="D58" s="197"/>
+      <c r="E58" s="177"/>
+      <c r="F58" s="177"/>
+      <c r="G58" s="177"/>
+      <c r="H58" s="177"/>
+      <c r="I58" s="197"/>
+      <c r="J58" s="198"/>
+      <c r="K58" s="197"/>
     </row>
     <row r="59" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A59" s="133"/>
-      <c r="B59" s="208"/>
-      <c r="C59" s="208"/>
-      <c r="D59" s="208"/>
-      <c r="E59" s="188"/>
-      <c r="F59" s="188"/>
-      <c r="G59" s="188"/>
-      <c r="H59" s="188"/>
-      <c r="I59" s="208"/>
-      <c r="J59" s="209"/>
-      <c r="K59" s="208"/>
+      <c r="A59" s="122"/>
+      <c r="B59" s="197"/>
+      <c r="C59" s="197"/>
+      <c r="D59" s="197"/>
+      <c r="E59" s="177"/>
+      <c r="F59" s="177"/>
+      <c r="G59" s="177"/>
+      <c r="H59" s="177"/>
+      <c r="I59" s="197"/>
+      <c r="J59" s="198"/>
+      <c r="K59" s="197"/>
     </row>
     <row r="60" spans="1:11" ht="12" x14ac:dyDescent="0.25">
-      <c r="A60" s="133"/>
-      <c r="B60" s="208"/>
-      <c r="C60" s="208"/>
-      <c r="D60" s="208"/>
-      <c r="E60" s="188"/>
-      <c r="F60" s="188"/>
-      <c r="G60" s="188"/>
-      <c r="H60" s="188"/>
-      <c r="I60" s="208"/>
-      <c r="J60" s="209"/>
-      <c r="K60" s="208"/>
+      <c r="A60" s="122"/>
+      <c r="B60" s="197"/>
+      <c r="C60" s="197"/>
+      <c r="D60" s="197"/>
+      <c r="E60" s="177"/>
+      <c r="F60" s="177"/>
+      <c r="G60" s="177"/>
+      <c r="H60" s="177"/>
+      <c r="I60" s="197"/>
+      <c r="J60" s="198"/>
+      <c r="K60" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4594,14 +4469,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B44655-1AD6-4F0D-BE2C-CEF7A76DFF02}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="34" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="135" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="124" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" style="34" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="34" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" style="34" customWidth="1"/>
@@ -4622,91 +4497,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="261" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="293"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="293"/>
-      <c r="F1" s="293"/>
-      <c r="G1" s="293"/>
-      <c r="H1" s="293"/>
-      <c r="I1" s="293"/>
-      <c r="J1" s="293"/>
-      <c r="K1" s="293"/>
-      <c r="L1" s="293"/>
-      <c r="M1" s="293"/>
-      <c r="N1" s="293"/>
-      <c r="O1" s="293"/>
-      <c r="P1" s="293"/>
-      <c r="Q1" s="293"/>
-      <c r="R1" s="293"/>
+      <c r="B1" s="261"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="262"/>
+      <c r="O1" s="262"/>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="262"/>
     </row>
     <row r="2" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="292" t="s">
+      <c r="A2" s="261" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="292"/>
-      <c r="C2" s="293"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293"/>
-      <c r="H2" s="293"/>
-      <c r="I2" s="293"/>
-      <c r="J2" s="293"/>
-      <c r="K2" s="293"/>
-      <c r="L2" s="293"/>
-      <c r="M2" s="293"/>
-      <c r="N2" s="293"/>
-      <c r="O2" s="293"/>
-      <c r="P2" s="293"/>
-      <c r="Q2" s="293"/>
-      <c r="R2" s="293"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="262"/>
+      <c r="N2" s="262"/>
+      <c r="O2" s="262"/>
+      <c r="P2" s="262"/>
+      <c r="Q2" s="262"/>
+      <c r="R2" s="262"/>
     </row>
     <row r="3" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="294" t="s">
+      <c r="A3" s="263" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="292"/>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="293"/>
-      <c r="H3" s="293"/>
-      <c r="I3" s="293"/>
-      <c r="J3" s="293"/>
-      <c r="K3" s="293"/>
-      <c r="L3" s="293"/>
-      <c r="M3" s="293"/>
-      <c r="N3" s="293"/>
-      <c r="O3" s="293"/>
-      <c r="P3" s="293"/>
-      <c r="Q3" s="293"/>
-      <c r="R3" s="293"/>
+      <c r="B3" s="261"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="262"/>
+      <c r="H3" s="262"/>
+      <c r="I3" s="262"/>
+      <c r="J3" s="262"/>
+      <c r="K3" s="262"/>
+      <c r="L3" s="262"/>
+      <c r="M3" s="262"/>
+      <c r="N3" s="262"/>
+      <c r="O3" s="262"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="262"/>
     </row>
     <row r="4" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="137"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="136"/>
+      <c r="H4" s="125"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="N4" s="138"/>
+      <c r="N4" s="127"/>
       <c r="P4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R4" s="139"/>
+      <c r="R4" s="128"/>
     </row>
     <row r="5" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -4715,7 +4590,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="138" t="s">
+      <c r="F5" s="127" t="s">
         <v>104</v>
       </c>
       <c r="G5" s="1"/>
@@ -4725,217 +4600,217 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="P5" s="296" t="s">
+      <c r="P5" s="269" t="s">
         <v>73</v>
       </c>
-      <c r="Q5" s="277"/>
-      <c r="R5" s="140"/>
+      <c r="Q5" s="266"/>
+      <c r="R5" s="129"/>
     </row>
     <row r="6" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="286" t="s">
+      <c r="A6" s="270" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="242"/>
-      <c r="C6" s="278"/>
-      <c r="D6" s="242"/>
-      <c r="E6" s="278"/>
-      <c r="F6" s="242"/>
-      <c r="G6" s="278"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="278"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="278"/>
-      <c r="L6" s="242"/>
-      <c r="M6" s="278"/>
-      <c r="N6" s="242"/>
-      <c r="O6" s="278"/>
-      <c r="P6" s="242"/>
-      <c r="Q6" s="278" t="s">
+      <c r="B6" s="235"/>
+      <c r="C6" s="272"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="272"/>
+      <c r="F6" s="235"/>
+      <c r="G6" s="272"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="272"/>
+      <c r="J6" s="235"/>
+      <c r="K6" s="272"/>
+      <c r="L6" s="235"/>
+      <c r="M6" s="272"/>
+      <c r="N6" s="235"/>
+      <c r="O6" s="272"/>
+      <c r="P6" s="235"/>
+      <c r="Q6" s="272" t="s">
         <v>158</v>
       </c>
-      <c r="R6" s="278" t="s">
+      <c r="R6" s="272" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="283"/>
-      <c r="B7" s="252"/>
-      <c r="C7" s="283"/>
-      <c r="D7" s="252"/>
-      <c r="E7" s="283"/>
-      <c r="F7" s="252"/>
-      <c r="G7" s="283"/>
-      <c r="H7" s="252"/>
-      <c r="I7" s="283"/>
-      <c r="J7" s="252"/>
-      <c r="K7" s="283"/>
-      <c r="L7" s="252"/>
-      <c r="M7" s="283"/>
-      <c r="N7" s="252"/>
-      <c r="O7" s="283"/>
-      <c r="P7" s="252"/>
-      <c r="Q7" s="284"/>
-      <c r="R7" s="284"/>
+      <c r="A7" s="271"/>
+      <c r="B7" s="226"/>
+      <c r="C7" s="271"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="226"/>
+      <c r="I7" s="271"/>
+      <c r="J7" s="226"/>
+      <c r="K7" s="271"/>
+      <c r="L7" s="226"/>
+      <c r="M7" s="271"/>
+      <c r="N7" s="226"/>
+      <c r="O7" s="271"/>
+      <c r="P7" s="226"/>
+      <c r="Q7" s="277"/>
+      <c r="R7" s="277"/>
     </row>
     <row r="8" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="286" t="s">
+      <c r="A8" s="270" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="234"/>
-      <c r="C8" s="278"/>
-      <c r="D8" s="234"/>
-      <c r="E8" s="278"/>
-      <c r="F8" s="234"/>
-      <c r="G8" s="278"/>
-      <c r="H8" s="234"/>
-      <c r="I8" s="278"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="278"/>
-      <c r="L8" s="234"/>
-      <c r="M8" s="278"/>
-      <c r="N8" s="234"/>
-      <c r="O8" s="278"/>
-      <c r="P8" s="234"/>
-      <c r="Q8" s="284"/>
-      <c r="R8" s="284"/>
+      <c r="B8" s="223"/>
+      <c r="C8" s="272"/>
+      <c r="D8" s="223"/>
+      <c r="E8" s="272"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="272"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="272"/>
+      <c r="J8" s="223"/>
+      <c r="K8" s="272"/>
+      <c r="L8" s="223"/>
+      <c r="M8" s="272"/>
+      <c r="N8" s="223"/>
+      <c r="O8" s="272"/>
+      <c r="P8" s="223"/>
+      <c r="Q8" s="277"/>
+      <c r="R8" s="277"/>
     </row>
     <row r="9" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="216" t="s">
+      <c r="B9" s="205" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="142" t="s">
+      <c r="C9" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="143" t="s">
+      <c r="D9" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="143" t="s">
+      <c r="E9" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="134" t="s">
+      <c r="H9" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="I9" s="143" t="s">
+      <c r="I9" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="143" t="s">
+      <c r="J9" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="K9" s="143" t="s">
+      <c r="K9" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="143" t="s">
+      <c r="L9" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="143" t="s">
+      <c r="M9" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="143" t="s">
+      <c r="N9" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="O9" s="143" t="s">
+      <c r="O9" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="143" t="s">
+      <c r="P9" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="Q9" s="285"/>
-      <c r="R9" s="285"/>
+      <c r="Q9" s="278"/>
+      <c r="R9" s="278"/>
     </row>
     <row r="10" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="215"/>
-      <c r="B10" s="215"/>
-      <c r="C10" s="215"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="145"/>
+      <c r="A10" s="204"/>
+      <c r="B10" s="204"/>
+      <c r="C10" s="204"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="134"/>
     </row>
     <row r="11" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="276"/>
-      <c r="B11" s="277" t="s">
+      <c r="A11" s="267"/>
+      <c r="B11" s="266" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="233"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="233"/>
-      <c r="F11" s="233"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="233"/>
-      <c r="I11" s="233"/>
-      <c r="J11" s="233"/>
-      <c r="K11" s="233"/>
-      <c r="L11" s="233"/>
-      <c r="M11" s="233"/>
-      <c r="N11" s="233"/>
-      <c r="O11" s="233"/>
-      <c r="P11" s="234"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="145"/>
+      <c r="C11" s="222"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="222"/>
+      <c r="H11" s="222"/>
+      <c r="I11" s="222"/>
+      <c r="J11" s="222"/>
+      <c r="K11" s="222"/>
+      <c r="L11" s="222"/>
+      <c r="M11" s="222"/>
+      <c r="N11" s="222"/>
+      <c r="O11" s="222"/>
+      <c r="P11" s="223"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="134"/>
     </row>
     <row r="12" spans="1:18" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="278" t="s">
+      <c r="A12" s="272" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="234"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="147"/>
+      <c r="B12" s="223"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="135"/>
+      <c r="R12" s="136"/>
     </row>
     <row r="13" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="278" t="s">
+      <c r="A13" s="272" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="234"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="148"/>
+      <c r="B13" s="223"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="137"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -4961,482 +4836,482 @@
       <c r="A15" s="281" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="277"/>
-      <c r="C15" s="277"/>
-      <c r="D15" s="277"/>
-      <c r="E15" s="277"/>
-      <c r="F15" s="277"/>
-      <c r="G15" s="277"/>
-      <c r="H15" s="277"/>
-      <c r="I15" s="277"/>
-      <c r="J15" s="277"/>
-      <c r="K15" s="277"/>
-      <c r="L15" s="277"/>
-      <c r="M15" s="277"/>
-      <c r="N15" s="277"/>
-      <c r="O15" s="277"/>
-      <c r="P15" s="277"/>
-      <c r="Q15" s="277"/>
+      <c r="B15" s="266"/>
+      <c r="C15" s="266"/>
+      <c r="D15" s="266"/>
+      <c r="E15" s="266"/>
+      <c r="F15" s="266"/>
+      <c r="G15" s="266"/>
+      <c r="H15" s="266"/>
+      <c r="I15" s="266"/>
+      <c r="J15" s="266"/>
+      <c r="K15" s="266"/>
+      <c r="L15" s="266"/>
+      <c r="M15" s="266"/>
+      <c r="N15" s="266"/>
+      <c r="O15" s="266"/>
+      <c r="P15" s="266"/>
+      <c r="Q15" s="266"/>
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="282" t="s">
+      <c r="B16" s="276" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="233"/>
-      <c r="D16" s="233"/>
-      <c r="E16" s="233"/>
-      <c r="F16" s="233"/>
-      <c r="G16" s="233"/>
-      <c r="H16" s="233"/>
-      <c r="I16" s="233"/>
-      <c r="J16" s="233"/>
-      <c r="K16" s="233"/>
-      <c r="L16" s="233"/>
-      <c r="M16" s="233"/>
-      <c r="N16" s="233"/>
-      <c r="O16" s="233"/>
-      <c r="P16" s="233"/>
-      <c r="Q16" s="233"/>
-      <c r="R16" s="234"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="222"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="222"/>
+      <c r="H16" s="222"/>
+      <c r="I16" s="222"/>
+      <c r="J16" s="222"/>
+      <c r="K16" s="222"/>
+      <c r="L16" s="222"/>
+      <c r="M16" s="222"/>
+      <c r="N16" s="222"/>
+      <c r="O16" s="222"/>
+      <c r="P16" s="222"/>
+      <c r="Q16" s="222"/>
+      <c r="R16" s="223"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="46">
         <v>1</v>
       </c>
-      <c r="B17" s="295" t="s">
+      <c r="B17" s="268" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="277"/>
-      <c r="D17" s="277"/>
-      <c r="E17" s="252"/>
-      <c r="F17" s="289"/>
-      <c r="G17" s="277"/>
-      <c r="H17" s="252"/>
-      <c r="I17" s="276"/>
-      <c r="J17" s="233"/>
-      <c r="K17" s="233"/>
-      <c r="L17" s="233"/>
-      <c r="M17" s="233"/>
-      <c r="N17" s="233"/>
-      <c r="O17" s="233"/>
-      <c r="P17" s="233"/>
-      <c r="Q17" s="233"/>
-      <c r="R17" s="234"/>
+      <c r="C17" s="266"/>
+      <c r="D17" s="266"/>
+      <c r="E17" s="226"/>
+      <c r="F17" s="265"/>
+      <c r="G17" s="266"/>
+      <c r="H17" s="226"/>
+      <c r="I17" s="267"/>
+      <c r="J17" s="222"/>
+      <c r="K17" s="222"/>
+      <c r="L17" s="222"/>
+      <c r="M17" s="222"/>
+      <c r="N17" s="222"/>
+      <c r="O17" s="222"/>
+      <c r="P17" s="222"/>
+      <c r="Q17" s="222"/>
+      <c r="R17" s="223"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="46">
         <v>2</v>
       </c>
-      <c r="B18" s="288" t="s">
+      <c r="B18" s="264" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="233"/>
-      <c r="D18" s="233"/>
-      <c r="E18" s="234"/>
-      <c r="F18" s="289"/>
-      <c r="G18" s="277"/>
-      <c r="H18" s="252"/>
-      <c r="I18" s="276"/>
-      <c r="J18" s="233"/>
-      <c r="K18" s="233"/>
-      <c r="L18" s="233"/>
-      <c r="M18" s="233"/>
-      <c r="N18" s="233"/>
-      <c r="O18" s="233"/>
-      <c r="P18" s="233"/>
-      <c r="Q18" s="233"/>
-      <c r="R18" s="234"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="222"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="265"/>
+      <c r="G18" s="266"/>
+      <c r="H18" s="226"/>
+      <c r="I18" s="267"/>
+      <c r="J18" s="222"/>
+      <c r="K18" s="222"/>
+      <c r="L18" s="222"/>
+      <c r="M18" s="222"/>
+      <c r="N18" s="222"/>
+      <c r="O18" s="222"/>
+      <c r="P18" s="222"/>
+      <c r="Q18" s="222"/>
+      <c r="R18" s="223"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="46">
         <v>3</v>
       </c>
-      <c r="B19" s="288" t="s">
+      <c r="B19" s="264" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="233"/>
-      <c r="D19" s="233"/>
-      <c r="E19" s="234"/>
-      <c r="F19" s="289"/>
-      <c r="G19" s="277"/>
-      <c r="H19" s="252"/>
-      <c r="I19" s="290"/>
-      <c r="J19" s="233"/>
-      <c r="K19" s="233"/>
-      <c r="L19" s="233"/>
-      <c r="M19" s="233"/>
-      <c r="N19" s="233"/>
-      <c r="O19" s="233"/>
-      <c r="P19" s="233"/>
-      <c r="Q19" s="233"/>
-      <c r="R19" s="234"/>
-      <c r="S19" s="138"/>
+      <c r="C19" s="222"/>
+      <c r="D19" s="222"/>
+      <c r="E19" s="223"/>
+      <c r="F19" s="265"/>
+      <c r="G19" s="266"/>
+      <c r="H19" s="226"/>
+      <c r="I19" s="273"/>
+      <c r="J19" s="222"/>
+      <c r="K19" s="222"/>
+      <c r="L19" s="222"/>
+      <c r="M19" s="222"/>
+      <c r="N19" s="222"/>
+      <c r="O19" s="222"/>
+      <c r="P19" s="222"/>
+      <c r="Q19" s="222"/>
+      <c r="R19" s="223"/>
+      <c r="S19" s="127"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="46">
         <v>4</v>
       </c>
-      <c r="B20" s="288" t="s">
+      <c r="B20" s="264" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="233"/>
-      <c r="D20" s="233"/>
-      <c r="E20" s="234"/>
-      <c r="F20" s="289" t="s">
+      <c r="C20" s="222"/>
+      <c r="D20" s="222"/>
+      <c r="E20" s="223"/>
+      <c r="F20" s="265" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="277"/>
-      <c r="H20" s="252"/>
-      <c r="I20" s="288" t="s">
+      <c r="G20" s="266"/>
+      <c r="H20" s="226"/>
+      <c r="I20" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="J20" s="233"/>
-      <c r="K20" s="233"/>
-      <c r="L20" s="233"/>
-      <c r="M20" s="233"/>
-      <c r="N20" s="233"/>
-      <c r="O20" s="233"/>
-      <c r="P20" s="233"/>
-      <c r="Q20" s="233"/>
-      <c r="R20" s="234"/>
-      <c r="S20" s="138"/>
+      <c r="J20" s="222"/>
+      <c r="K20" s="222"/>
+      <c r="L20" s="222"/>
+      <c r="M20" s="222"/>
+      <c r="N20" s="222"/>
+      <c r="O20" s="222"/>
+      <c r="P20" s="222"/>
+      <c r="Q20" s="222"/>
+      <c r="R20" s="223"/>
+      <c r="S20" s="127"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="46">
         <v>5</v>
       </c>
-      <c r="B21" s="288" t="s">
+      <c r="B21" s="264" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="233"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="234"/>
-      <c r="F21" s="289" t="s">
+      <c r="C21" s="222"/>
+      <c r="D21" s="222"/>
+      <c r="E21" s="223"/>
+      <c r="F21" s="265" t="s">
         <v>125</v>
       </c>
-      <c r="G21" s="277"/>
-      <c r="H21" s="252"/>
-      <c r="I21" s="288" t="s">
+      <c r="G21" s="266"/>
+      <c r="H21" s="226"/>
+      <c r="I21" s="264" t="s">
         <v>127</v>
       </c>
-      <c r="J21" s="233"/>
-      <c r="K21" s="233"/>
-      <c r="L21" s="233"/>
-      <c r="M21" s="233"/>
-      <c r="N21" s="233"/>
-      <c r="O21" s="233"/>
-      <c r="P21" s="233"/>
-      <c r="Q21" s="233"/>
-      <c r="R21" s="234"/>
+      <c r="J21" s="222"/>
+      <c r="K21" s="222"/>
+      <c r="L21" s="222"/>
+      <c r="M21" s="222"/>
+      <c r="N21" s="222"/>
+      <c r="O21" s="222"/>
+      <c r="P21" s="222"/>
+      <c r="Q21" s="222"/>
+      <c r="R21" s="223"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="46">
         <v>6</v>
       </c>
-      <c r="B22" s="288" t="s">
+      <c r="B22" s="264" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="233"/>
-      <c r="D22" s="233"/>
-      <c r="E22" s="234"/>
-      <c r="F22" s="289" t="s">
+      <c r="C22" s="222"/>
+      <c r="D22" s="222"/>
+      <c r="E22" s="223"/>
+      <c r="F22" s="265" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="277"/>
-      <c r="H22" s="252"/>
-      <c r="I22" s="288"/>
-      <c r="J22" s="233"/>
-      <c r="K22" s="233"/>
-      <c r="L22" s="233"/>
-      <c r="M22" s="233"/>
-      <c r="N22" s="233"/>
-      <c r="O22" s="233"/>
-      <c r="P22" s="233"/>
-      <c r="Q22" s="233"/>
-      <c r="R22" s="234"/>
+      <c r="G22" s="266"/>
+      <c r="H22" s="226"/>
+      <c r="I22" s="264"/>
+      <c r="J22" s="222"/>
+      <c r="K22" s="222"/>
+      <c r="L22" s="222"/>
+      <c r="M22" s="222"/>
+      <c r="N22" s="222"/>
+      <c r="O22" s="222"/>
+      <c r="P22" s="222"/>
+      <c r="Q22" s="222"/>
+      <c r="R22" s="223"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="46">
         <v>7</v>
       </c>
-      <c r="B23" s="288" t="s">
+      <c r="B23" s="264" t="s">
         <v>147</v>
       </c>
-      <c r="C23" s="233"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="234"/>
-      <c r="F23" s="289"/>
-      <c r="G23" s="277"/>
-      <c r="H23" s="252"/>
-      <c r="I23" s="288" t="s">
+      <c r="C23" s="222"/>
+      <c r="D23" s="222"/>
+      <c r="E23" s="223"/>
+      <c r="F23" s="265"/>
+      <c r="G23" s="266"/>
+      <c r="H23" s="226"/>
+      <c r="I23" s="264" t="s">
         <v>128</v>
       </c>
-      <c r="J23" s="233"/>
-      <c r="K23" s="233"/>
-      <c r="L23" s="233"/>
-      <c r="M23" s="233"/>
-      <c r="N23" s="233"/>
-      <c r="O23" s="233"/>
-      <c r="P23" s="233"/>
-      <c r="Q23" s="233"/>
-      <c r="R23" s="234"/>
+      <c r="J23" s="222"/>
+      <c r="K23" s="222"/>
+      <c r="L23" s="222"/>
+      <c r="M23" s="222"/>
+      <c r="N23" s="222"/>
+      <c r="O23" s="222"/>
+      <c r="P23" s="222"/>
+      <c r="Q23" s="222"/>
+      <c r="R23" s="223"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="46">
         <v>8</v>
       </c>
-      <c r="B24" s="288" t="s">
+      <c r="B24" s="264" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="233"/>
-      <c r="D24" s="233"/>
-      <c r="E24" s="234"/>
-      <c r="F24" s="289"/>
-      <c r="G24" s="277"/>
-      <c r="H24" s="252"/>
-      <c r="I24" s="288" t="s">
+      <c r="C24" s="222"/>
+      <c r="D24" s="222"/>
+      <c r="E24" s="223"/>
+      <c r="F24" s="265"/>
+      <c r="G24" s="266"/>
+      <c r="H24" s="226"/>
+      <c r="I24" s="264" t="s">
         <v>128</v>
       </c>
-      <c r="J24" s="233"/>
-      <c r="K24" s="233"/>
-      <c r="L24" s="233"/>
-      <c r="M24" s="233"/>
-      <c r="N24" s="233"/>
-      <c r="O24" s="233"/>
-      <c r="P24" s="233"/>
-      <c r="Q24" s="233"/>
-      <c r="R24" s="234"/>
+      <c r="J24" s="222"/>
+      <c r="K24" s="222"/>
+      <c r="L24" s="222"/>
+      <c r="M24" s="222"/>
+      <c r="N24" s="222"/>
+      <c r="O24" s="222"/>
+      <c r="P24" s="222"/>
+      <c r="Q24" s="222"/>
+      <c r="R24" s="223"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="46">
         <v>9</v>
       </c>
-      <c r="B25" s="288" t="s">
+      <c r="B25" s="264" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="233"/>
-      <c r="D25" s="233"/>
-      <c r="E25" s="234"/>
-      <c r="F25" s="291"/>
-      <c r="G25" s="277"/>
-      <c r="H25" s="252"/>
-      <c r="I25" s="290"/>
-      <c r="J25" s="233"/>
-      <c r="K25" s="233"/>
-      <c r="L25" s="233"/>
-      <c r="M25" s="233"/>
-      <c r="N25" s="233"/>
-      <c r="O25" s="233"/>
-      <c r="P25" s="233"/>
-      <c r="Q25" s="233"/>
-      <c r="R25" s="234"/>
+      <c r="C25" s="222"/>
+      <c r="D25" s="222"/>
+      <c r="E25" s="223"/>
+      <c r="F25" s="274"/>
+      <c r="G25" s="266"/>
+      <c r="H25" s="226"/>
+      <c r="I25" s="273"/>
+      <c r="J25" s="222"/>
+      <c r="K25" s="222"/>
+      <c r="L25" s="222"/>
+      <c r="M25" s="222"/>
+      <c r="N25" s="222"/>
+      <c r="O25" s="222"/>
+      <c r="P25" s="222"/>
+      <c r="Q25" s="222"/>
+      <c r="R25" s="223"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="46">
         <v>10</v>
       </c>
-      <c r="B26" s="288" t="s">
+      <c r="B26" s="264" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="233"/>
-      <c r="D26" s="233"/>
-      <c r="E26" s="233"/>
-      <c r="F26" s="233"/>
-      <c r="G26" s="233"/>
-      <c r="H26" s="233"/>
-      <c r="I26" s="233"/>
-      <c r="J26" s="233"/>
-      <c r="K26" s="233"/>
-      <c r="L26" s="233"/>
-      <c r="M26" s="233"/>
-      <c r="N26" s="233"/>
-      <c r="O26" s="233"/>
-      <c r="P26" s="233"/>
-      <c r="Q26" s="233"/>
-      <c r="R26" s="234"/>
+      <c r="C26" s="222"/>
+      <c r="D26" s="222"/>
+      <c r="E26" s="222"/>
+      <c r="F26" s="222"/>
+      <c r="G26" s="222"/>
+      <c r="H26" s="222"/>
+      <c r="I26" s="222"/>
+      <c r="J26" s="222"/>
+      <c r="K26" s="222"/>
+      <c r="L26" s="222"/>
+      <c r="M26" s="222"/>
+      <c r="N26" s="222"/>
+      <c r="O26" s="222"/>
+      <c r="P26" s="222"/>
+      <c r="Q26" s="222"/>
+      <c r="R26" s="223"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="146" t="s">
+      <c r="A27" s="135" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="282" t="s">
+      <c r="B27" s="276" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="233"/>
-      <c r="D27" s="233"/>
-      <c r="E27" s="233"/>
-      <c r="F27" s="233"/>
-      <c r="G27" s="233"/>
-      <c r="H27" s="233"/>
-      <c r="I27" s="233"/>
-      <c r="J27" s="233"/>
-      <c r="K27" s="233"/>
-      <c r="L27" s="233"/>
-      <c r="M27" s="233"/>
-      <c r="N27" s="233"/>
-      <c r="O27" s="233"/>
-      <c r="P27" s="233"/>
-      <c r="Q27" s="233"/>
-      <c r="R27" s="234"/>
+      <c r="C27" s="222"/>
+      <c r="D27" s="222"/>
+      <c r="E27" s="222"/>
+      <c r="F27" s="222"/>
+      <c r="G27" s="222"/>
+      <c r="H27" s="222"/>
+      <c r="I27" s="222"/>
+      <c r="J27" s="222"/>
+      <c r="K27" s="222"/>
+      <c r="L27" s="222"/>
+      <c r="M27" s="222"/>
+      <c r="N27" s="222"/>
+      <c r="O27" s="222"/>
+      <c r="P27" s="222"/>
+      <c r="Q27" s="222"/>
+      <c r="R27" s="223"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="144">
+      <c r="A28" s="133">
         <v>1</v>
       </c>
-      <c r="B28" s="288" t="s">
+      <c r="B28" s="264" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="233"/>
-      <c r="D28" s="233"/>
-      <c r="E28" s="234"/>
-      <c r="F28" s="289"/>
-      <c r="G28" s="277"/>
-      <c r="H28" s="252"/>
-      <c r="I28" s="240"/>
-      <c r="J28" s="233"/>
-      <c r="K28" s="233"/>
-      <c r="L28" s="233"/>
-      <c r="M28" s="233"/>
-      <c r="N28" s="233"/>
-      <c r="O28" s="233"/>
-      <c r="P28" s="233"/>
-      <c r="Q28" s="233"/>
-      <c r="R28" s="234"/>
+      <c r="C28" s="222"/>
+      <c r="D28" s="222"/>
+      <c r="E28" s="223"/>
+      <c r="F28" s="265"/>
+      <c r="G28" s="266"/>
+      <c r="H28" s="226"/>
+      <c r="I28" s="233"/>
+      <c r="J28" s="222"/>
+      <c r="K28" s="222"/>
+      <c r="L28" s="222"/>
+      <c r="M28" s="222"/>
+      <c r="N28" s="222"/>
+      <c r="O28" s="222"/>
+      <c r="P28" s="222"/>
+      <c r="Q28" s="222"/>
+      <c r="R28" s="223"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="144">
+      <c r="A29" s="133">
         <v>2</v>
       </c>
-      <c r="B29" s="288" t="s">
+      <c r="B29" s="264" t="s">
         <v>150</v>
       </c>
-      <c r="C29" s="233"/>
-      <c r="D29" s="233"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="289"/>
-      <c r="G29" s="277"/>
-      <c r="H29" s="252"/>
-      <c r="I29" s="276"/>
-      <c r="J29" s="233"/>
-      <c r="K29" s="233"/>
-      <c r="L29" s="233"/>
-      <c r="M29" s="233"/>
-      <c r="N29" s="233"/>
-      <c r="O29" s="233"/>
-      <c r="P29" s="233"/>
-      <c r="Q29" s="233"/>
-      <c r="R29" s="234"/>
+      <c r="C29" s="222"/>
+      <c r="D29" s="222"/>
+      <c r="E29" s="223"/>
+      <c r="F29" s="265"/>
+      <c r="G29" s="266"/>
+      <c r="H29" s="226"/>
+      <c r="I29" s="267"/>
+      <c r="J29" s="222"/>
+      <c r="K29" s="222"/>
+      <c r="L29" s="222"/>
+      <c r="M29" s="222"/>
+      <c r="N29" s="222"/>
+      <c r="O29" s="222"/>
+      <c r="P29" s="222"/>
+      <c r="Q29" s="222"/>
+      <c r="R29" s="223"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="144">
+      <c r="A30" s="133">
         <v>3</v>
       </c>
-      <c r="B30" s="288" t="s">
+      <c r="B30" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="233"/>
-      <c r="D30" s="233"/>
-      <c r="E30" s="234"/>
-      <c r="F30" s="289"/>
-      <c r="G30" s="277"/>
-      <c r="H30" s="252"/>
-      <c r="I30" s="290"/>
-      <c r="J30" s="233"/>
-      <c r="K30" s="233"/>
-      <c r="L30" s="233"/>
-      <c r="M30" s="233"/>
-      <c r="N30" s="233"/>
-      <c r="O30" s="233"/>
-      <c r="P30" s="233"/>
-      <c r="Q30" s="233"/>
-      <c r="R30" s="234"/>
+      <c r="C30" s="222"/>
+      <c r="D30" s="222"/>
+      <c r="E30" s="223"/>
+      <c r="F30" s="265"/>
+      <c r="G30" s="266"/>
+      <c r="H30" s="226"/>
+      <c r="I30" s="273"/>
+      <c r="J30" s="222"/>
+      <c r="K30" s="222"/>
+      <c r="L30" s="222"/>
+      <c r="M30" s="222"/>
+      <c r="N30" s="222"/>
+      <c r="O30" s="222"/>
+      <c r="P30" s="222"/>
+      <c r="Q30" s="222"/>
+      <c r="R30" s="223"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="144">
+      <c r="A31" s="133">
         <v>4</v>
       </c>
-      <c r="B31" s="149" t="s">
+      <c r="B31" s="138" t="s">
         <v>124</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="289" t="str">
+      <c r="E31" s="139"/>
+      <c r="F31" s="265" t="str">
         <f t="array" aca="1" ref="F31" ca="1">IFERROR(INDIRECT("'" &amp; R4-1 &amp; "'!F173") - R13, "-")</f>
         <v>-</v>
       </c>
-      <c r="G31" s="277"/>
-      <c r="H31" s="252"/>
-      <c r="I31" s="288" t="s">
+      <c r="G31" s="266"/>
+      <c r="H31" s="226"/>
+      <c r="I31" s="264" t="s">
         <v>129</v>
       </c>
-      <c r="J31" s="233"/>
-      <c r="K31" s="233"/>
-      <c r="L31" s="233"/>
-      <c r="M31" s="233"/>
-      <c r="N31" s="233"/>
-      <c r="O31" s="233"/>
-      <c r="P31" s="233"/>
-      <c r="Q31" s="233"/>
-      <c r="R31" s="234"/>
+      <c r="J31" s="222"/>
+      <c r="K31" s="222"/>
+      <c r="L31" s="222"/>
+      <c r="M31" s="222"/>
+      <c r="N31" s="222"/>
+      <c r="O31" s="222"/>
+      <c r="P31" s="222"/>
+      <c r="Q31" s="222"/>
+      <c r="R31" s="223"/>
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="144">
+      <c r="A32" s="133">
         <v>5</v>
       </c>
-      <c r="B32" s="287" t="s">
+      <c r="B32" s="275" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="233"/>
-      <c r="D32" s="233"/>
-      <c r="E32" s="233"/>
-      <c r="F32" s="233"/>
-      <c r="G32" s="233"/>
-      <c r="H32" s="233"/>
-      <c r="I32" s="233"/>
-      <c r="J32" s="233"/>
-      <c r="K32" s="233"/>
-      <c r="L32" s="233"/>
-      <c r="M32" s="233"/>
-      <c r="N32" s="233"/>
-      <c r="O32" s="233"/>
-      <c r="P32" s="233"/>
-      <c r="Q32" s="233"/>
-      <c r="R32" s="234"/>
+      <c r="C32" s="222"/>
+      <c r="D32" s="222"/>
+      <c r="E32" s="222"/>
+      <c r="F32" s="222"/>
+      <c r="G32" s="222"/>
+      <c r="H32" s="222"/>
+      <c r="I32" s="222"/>
+      <c r="J32" s="222"/>
+      <c r="K32" s="222"/>
+      <c r="L32" s="222"/>
+      <c r="M32" s="222"/>
+      <c r="N32" s="222"/>
+      <c r="O32" s="222"/>
+      <c r="P32" s="222"/>
+      <c r="Q32" s="222"/>
+      <c r="R32" s="223"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="151"/>
+      <c r="E47" s="140"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="151"/>
+      <c r="G47" s="140"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="151"/>
+      <c r="I47" s="140"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="151"/>
+      <c r="K47" s="140"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="152"/>
+      <c r="M47" s="141"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="139"/>
+      <c r="P47" s="128"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="E48" s="153"/>
-      <c r="G48" s="153"/>
-      <c r="I48" s="153" t="s">
+      <c r="E48" s="142"/>
+      <c r="G48" s="142"/>
+      <c r="I48" s="142" t="s">
         <v>151</v>
       </c>
-      <c r="K48" s="153"/>
-      <c r="M48" s="152"/>
-      <c r="P48" s="139" t="s">
+      <c r="K48" s="142"/>
+      <c r="M48" s="141"/>
+      <c r="P48" s="128" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5447,7 +5322,7 @@
       <c r="I49" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="P49" s="139" t="s">
+      <c r="P49" s="128" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5455,32 +5330,85 @@
       <c r="A66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="151"/>
+      <c r="E66" s="140"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="151"/>
+      <c r="G66" s="140"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="151"/>
+      <c r="I66" s="140"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="151"/>
+      <c r="K66" s="140"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="152"/>
+      <c r="M66" s="141"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
-      <c r="P66" s="139"/>
+      <c r="P66" s="128"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E67" s="153"/>
-      <c r="G67" s="153"/>
-      <c r="I67" s="153"/>
-      <c r="K67" s="153"/>
-      <c r="M67" s="152"/>
-      <c r="P67" s="139"/>
+      <c r="E67" s="142"/>
+      <c r="G67" s="142"/>
+      <c r="I67" s="142"/>
+      <c r="K67" s="142"/>
+      <c r="M67" s="141"/>
+      <c r="P67" s="128"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="P68" s="139"/>
+      <c r="P68" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B32:R32"/>
+    <mergeCell ref="B27:R27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:R29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:R28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:R30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:R31"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:R25"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:R23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:R24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:R20"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A3:R3"/>
@@ -5497,59 +5425,6 @@
     <mergeCell ref="G6:H7"/>
     <mergeCell ref="I6:J7"/>
     <mergeCell ref="K6:L7"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:R25"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:R23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:R24"/>
-    <mergeCell ref="B32:R32"/>
-    <mergeCell ref="B27:R27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:R29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:R28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:R30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:R31"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A15:Q15"/>
-    <mergeCell ref="B16:R16"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.16" top="0.34" bottom="0.41" header="0.3" footer="0.2"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5578,14 +5453,14 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="163"/>
+      <c r="B6" s="152"/>
       <c r="D6" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="164"/>
+      <c r="E6" s="153"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="165"/>
+      <c r="E7" s="154"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -5608,206 +5483,206 @@
       <c r="D10" s="73"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="297" t="s">
+      <c r="A11" s="282" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="293"/>
-      <c r="C11" s="293"/>
-      <c r="D11" s="293"/>
-      <c r="E11" s="293"/>
+      <c r="B11" s="262"/>
+      <c r="C11" s="262"/>
+      <c r="D11" s="262"/>
+      <c r="E11" s="262"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="136" t="s">
+      <c r="B13" s="125" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="166"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="168"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="157"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="169"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="171"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="160"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="172" t="s">
+      <c r="A15" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="175" t="s">
+      <c r="B15" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="175" t="s">
+      <c r="C15" s="164" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="175" t="s">
+      <c r="D15" s="164" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="175" t="s">
+      <c r="E15" s="164" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="133">
+      <c r="A16" s="122">
         <v>1</v>
       </c>
-      <c r="B16" s="132"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="133">
+      <c r="A17" s="122">
         <v>2</v>
       </c>
-      <c r="B17" s="132"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="133">
+      <c r="A18" s="122">
         <v>3</v>
       </c>
-      <c r="B18" s="132"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="133">
+      <c r="A19" s="122">
         <v>4</v>
       </c>
-      <c r="B19" s="132"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="133">
+      <c r="A20" s="122">
         <v>5</v>
       </c>
-      <c r="B20" s="132"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="133">
+      <c r="A21" s="122">
         <v>6</v>
       </c>
-      <c r="B21" s="132"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="133">
+      <c r="A22" s="122">
         <v>7</v>
       </c>
-      <c r="B22" s="132"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="133">
+      <c r="A23" s="122">
         <v>8</v>
       </c>
-      <c r="B23" s="132"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="133">
+      <c r="A24" s="122">
         <v>9</v>
       </c>
-      <c r="B24" s="132"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="133">
+      <c r="A25" s="122">
         <v>10</v>
       </c>
-      <c r="B25" s="132"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="133">
+      <c r="A26" s="122">
         <v>11</v>
       </c>
-      <c r="B26" s="132"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="133">
+      <c r="A27" s="122">
         <v>12</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="133">
+      <c r="A28" s="122">
         <v>13</v>
       </c>
-      <c r="B28" s="132"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="133"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="133">
+      <c r="A29" s="122">
         <v>14</v>
       </c>
-      <c r="B29" s="132"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="133">
+      <c r="A30" s="122">
         <v>15</v>
       </c>
-      <c r="B30" s="132"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="133"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="133">
+      <c r="A31" s="122">
         <v>16</v>
       </c>
-      <c r="B31" s="132"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="133"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="133">
+      <c r="A32" s="122">
         <v>17</v>
       </c>
-      <c r="B32" s="132"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="173"/>
+      <c r="E36" s="162"/>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E38" s="174"/>
+      <c r="E38" s="163"/>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E39" s="173"/>
+      <c r="E39" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5830,7 +5705,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="135" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="124" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="34" customWidth="1"/>
     <col min="4" max="4" width="9" style="34" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" style="34" customWidth="1"/>
@@ -5851,70 +5726,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="261" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="293"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="293"/>
-      <c r="F1" s="293"/>
-      <c r="G1" s="293"/>
-      <c r="H1" s="293"/>
-      <c r="I1" s="293"/>
-      <c r="J1" s="293"/>
-      <c r="K1" s="293"/>
-      <c r="L1" s="293"/>
-      <c r="M1" s="293"/>
-      <c r="N1" s="293"/>
-      <c r="O1" s="293"/>
-      <c r="P1" s="293"/>
-      <c r="Q1" s="293"/>
-      <c r="R1" s="293"/>
+      <c r="B1" s="261"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="262"/>
+      <c r="O1" s="262"/>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="262"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="292" t="s">
+      <c r="A2" s="261" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="292"/>
-      <c r="C2" s="293"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293"/>
-      <c r="H2" s="293"/>
-      <c r="I2" s="293"/>
-      <c r="J2" s="293"/>
-      <c r="K2" s="293"/>
-      <c r="L2" s="293"/>
-      <c r="M2" s="293"/>
-      <c r="N2" s="293"/>
-      <c r="O2" s="293"/>
-      <c r="P2" s="293"/>
-      <c r="Q2" s="293"/>
-      <c r="R2" s="293"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="262"/>
+      <c r="N2" s="262"/>
+      <c r="O2" s="262"/>
+      <c r="P2" s="262"/>
+      <c r="Q2" s="262"/>
+      <c r="R2" s="262"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="294" t="s">
+      <c r="A3" s="263" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="292"/>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="293"/>
-      <c r="H3" s="293"/>
-      <c r="I3" s="293"/>
-      <c r="J3" s="293"/>
-      <c r="K3" s="293"/>
-      <c r="L3" s="293"/>
-      <c r="M3" s="293"/>
-      <c r="N3" s="293"/>
-      <c r="O3" s="293"/>
-      <c r="P3" s="293"/>
-      <c r="Q3" s="293"/>
-      <c r="R3" s="293"/>
+      <c r="B3" s="261"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="262"/>
+      <c r="H3" s="262"/>
+      <c r="I3" s="262"/>
+      <c r="J3" s="262"/>
+      <c r="K3" s="262"/>
+      <c r="L3" s="262"/>
+      <c r="M3" s="262"/>
+      <c r="N3" s="262"/>
+      <c r="O3" s="262"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="262"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
@@ -5922,7 +5797,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="136"/>
+      <c r="H4" s="125"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -5936,7 +5811,7 @@
       <c r="A5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="137"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -5945,12 +5820,12 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="N5" s="138"/>
+      <c r="N5" s="127"/>
       <c r="Q5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R5" s="155"/>
-      <c r="S5" s="156"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="145"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -5960,224 +5835,224 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="138" t="s">
+      <c r="H6" s="127" t="s">
         <v>104</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="136"/>
+      <c r="N6" s="125"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R6" s="157"/>
+      <c r="R6" s="146"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="286" t="s">
+      <c r="A7" s="270" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="242"/>
-      <c r="C7" s="278"/>
-      <c r="D7" s="242"/>
-      <c r="E7" s="278"/>
-      <c r="F7" s="242"/>
-      <c r="G7" s="278"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="278"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="278"/>
-      <c r="L7" s="242"/>
-      <c r="M7" s="278"/>
-      <c r="N7" s="242"/>
-      <c r="O7" s="278"/>
-      <c r="P7" s="242"/>
-      <c r="Q7" s="278" t="s">
+      <c r="B7" s="235"/>
+      <c r="C7" s="272"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="272"/>
+      <c r="F7" s="235"/>
+      <c r="G7" s="272"/>
+      <c r="H7" s="235"/>
+      <c r="I7" s="272"/>
+      <c r="J7" s="235"/>
+      <c r="K7" s="272"/>
+      <c r="L7" s="235"/>
+      <c r="M7" s="272"/>
+      <c r="N7" s="235"/>
+      <c r="O7" s="272"/>
+      <c r="P7" s="235"/>
+      <c r="Q7" s="272" t="s">
         <v>106</v>
       </c>
-      <c r="R7" s="278" t="s">
+      <c r="R7" s="272" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="283"/>
-      <c r="B8" s="252"/>
-      <c r="C8" s="283"/>
-      <c r="D8" s="252"/>
-      <c r="E8" s="283"/>
-      <c r="F8" s="252"/>
-      <c r="G8" s="283"/>
-      <c r="H8" s="252"/>
-      <c r="I8" s="283"/>
-      <c r="J8" s="252"/>
-      <c r="K8" s="283"/>
-      <c r="L8" s="252"/>
-      <c r="M8" s="283"/>
-      <c r="N8" s="252"/>
-      <c r="O8" s="283"/>
-      <c r="P8" s="252"/>
-      <c r="Q8" s="284"/>
-      <c r="R8" s="284"/>
+      <c r="A8" s="271"/>
+      <c r="B8" s="226"/>
+      <c r="C8" s="271"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="271"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="271"/>
+      <c r="H8" s="226"/>
+      <c r="I8" s="271"/>
+      <c r="J8" s="226"/>
+      <c r="K8" s="271"/>
+      <c r="L8" s="226"/>
+      <c r="M8" s="271"/>
+      <c r="N8" s="226"/>
+      <c r="O8" s="271"/>
+      <c r="P8" s="226"/>
+      <c r="Q8" s="277"/>
+      <c r="R8" s="277"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="286" t="s">
+      <c r="A9" s="270" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="234"/>
-      <c r="C9" s="278"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="278"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="278"/>
-      <c r="H9" s="234"/>
-      <c r="I9" s="278"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="278"/>
-      <c r="L9" s="234"/>
-      <c r="M9" s="278"/>
-      <c r="N9" s="234"/>
-      <c r="O9" s="278"/>
-      <c r="P9" s="234"/>
-      <c r="Q9" s="285"/>
-      <c r="R9" s="285"/>
+      <c r="B9" s="223"/>
+      <c r="C9" s="272"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="272"/>
+      <c r="F9" s="223"/>
+      <c r="G9" s="272"/>
+      <c r="H9" s="223"/>
+      <c r="I9" s="272"/>
+      <c r="J9" s="223"/>
+      <c r="K9" s="272"/>
+      <c r="L9" s="223"/>
+      <c r="M9" s="272"/>
+      <c r="N9" s="223"/>
+      <c r="O9" s="272"/>
+      <c r="P9" s="223"/>
+      <c r="Q9" s="278"/>
+      <c r="R9" s="278"/>
     </row>
     <row r="10" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="142" t="s">
+      <c r="C10" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="143" t="s">
+      <c r="D10" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="143" t="s">
+      <c r="E10" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="143" t="s">
+      <c r="F10" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="143" t="s">
+      <c r="G10" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="143" t="s">
+      <c r="H10" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="143" t="s">
+      <c r="I10" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="143" t="s">
+      <c r="J10" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="K10" s="143" t="s">
+      <c r="K10" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="143" t="s">
+      <c r="L10" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="M10" s="143" t="s">
+      <c r="M10" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="143" t="s">
+      <c r="N10" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="O10" s="143" t="s">
+      <c r="O10" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="143" t="s">
+      <c r="P10" s="132" t="s">
         <v>131</v>
       </c>
-      <c r="Q10" s="141"/>
-      <c r="R10" s="141"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="130"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="145"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="134"/>
     </row>
     <row r="12" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="276" t="s">
+      <c r="A12" s="267" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="233"/>
-      <c r="C12" s="233"/>
-      <c r="D12" s="233"/>
-      <c r="E12" s="233"/>
-      <c r="F12" s="233"/>
-      <c r="G12" s="233"/>
-      <c r="H12" s="233"/>
-      <c r="I12" s="233"/>
-      <c r="J12" s="233"/>
-      <c r="K12" s="233"/>
-      <c r="L12" s="233"/>
-      <c r="M12" s="233"/>
-      <c r="N12" s="233"/>
-      <c r="O12" s="233"/>
-      <c r="P12" s="234"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="159"/>
+      <c r="B12" s="222"/>
+      <c r="C12" s="222"/>
+      <c r="D12" s="222"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="222"/>
+      <c r="G12" s="222"/>
+      <c r="H12" s="222"/>
+      <c r="I12" s="222"/>
+      <c r="J12" s="222"/>
+      <c r="K12" s="222"/>
+      <c r="L12" s="222"/>
+      <c r="M12" s="222"/>
+      <c r="N12" s="222"/>
+      <c r="O12" s="222"/>
+      <c r="P12" s="223"/>
+      <c r="Q12" s="135"/>
+      <c r="R12" s="148"/>
     </row>
     <row r="13" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="278" t="s">
+      <c r="A13" s="272" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="234"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="160"/>
+      <c r="B13" s="223"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="133"/>
+      <c r="R13" s="149"/>
     </row>
     <row r="14" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="278" t="s">
+      <c r="A14" s="272" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="234"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="147"/>
+      <c r="B14" s="223"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="136"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -6219,8 +6094,8 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="161"/>
-      <c r="B17" s="162"/>
+      <c r="A17" s="150"/>
+      <c r="B17" s="151"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -6236,29 +6111,20 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="161"/>
+      <c r="R17" s="150"/>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q18" s="139"/>
-      <c r="R18" s="139"/>
-      <c r="S18" s="139"/>
+      <c r="Q18" s="128"/>
+      <c r="R18" s="128"/>
+      <c r="S18" s="128"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B21" s="34"/>
-      <c r="C21" s="135"/>
+      <c r="C21" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A12:P12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A3:R3"/>
@@ -6275,6 +6141,15 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.16" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
